--- a/static/import/Aggregate_Trails.xlsx
+++ b/static/import/Aggregate_Trails.xlsx
@@ -10,14 +10,14 @@
     <sheet name="trails_dest_id" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="trails_dest_id">trails_dest_id!$A$1:$J$130</definedName>
+    <definedName name="trails_dest_id">trails_dest_id!$A$1:$J$150</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="567">
   <si>
     <t>Recreation Type ID</t>
   </si>
@@ -61,9 +61,6 @@
     <t>7.6 miles of paved trail for activities like cycling, walking and in-line skating. Motorized vehicles are prohibited. Connects Metroparks serving Summit county to the south and South Chagrin Reservation to the northeast.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "LABEL_NAME" LIKE '%Bedford Reservation All Purpose Trail%'</t>
-  </si>
-  <si>
     <t>Exercising</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>14.1 miles. Bicycles and motorized vehicles prohibited.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bedford Reservation'AND "LABEL_NAME" LIKE '%Bridle Trail%'</t>
-  </si>
-  <si>
     <t>Horseback Riding</t>
   </si>
   <si>
@@ -88,54 +82,36 @@
     <t>0.7 mile trail through the woodland near Egbert Picnic area. Has numerous fitness stations.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bedford Reservation'AND "LABEL_NAME" LIKE '%Bedford Reservation Physical Fitness Trail%'</t>
-  </si>
-  <si>
     <t>Buckeye Trail, Bedford Reservation</t>
   </si>
   <si>
     <t>9.7 miles. A hilly and rugged portion of the 1400-mile Buckeye Trail travels through Bedford Reservation. The trail continues in a large loop around the state.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bedford Reservation'AND "LABEL_NAME" LIKE '%Buckeye Trail%'</t>
-  </si>
-  <si>
     <t>Forbes Loop Trail</t>
   </si>
   <si>
     <t>0.3 mile. This woodland, paved trail allows you to discover how time and nature have reclaimed the old Forbes dairy farm.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bedford Reservation'AND "LABEL_NAME" LIKE '%Forbes Loop Trail%'</t>
-  </si>
-  <si>
     <t>Hemlock Loop Trail, Bedford Reservation</t>
   </si>
   <si>
     <t>0.8 mile. This flat woodland trail takes you along the Tinker’s Creek floodplain. A spectacular display of wildflowers carpet the forest each spring.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bedford Reservation'AND "LABEL_NAME" LIKE '%Hemlock Loop Trail%'</t>
-  </si>
-  <si>
     <t>Sagamore Creek Loop Trail</t>
   </si>
   <si>
     <t>3.6 miles. Hiking along and above Sagamore Creek, you’ll have the opportunity to cross over the creek, and weave in and out of forested areas.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bedford Reservation'AND "LABEL_NAME" LIKE '%Sagamore Creek Loop Trail%'</t>
-  </si>
-  <si>
     <t>Viaduct Park Loop Trail</t>
   </si>
   <si>
     <t>0.4 mile. Wayside panels introduce the history of this area on your way to see the power and beauty of The Great Falls of Tinker’s Creek</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bedford Reservation'AND "LABEL_NAME" LIKE '%Viaduct Park Loop Trail%'</t>
-  </si>
-  <si>
     <t>Big Creek Reservation</t>
   </si>
   <si>
@@ -145,27 +121,18 @@
     <t>0.7 mile. This easy trail circles Beyer’s Pond, which can attract abundant wildlife including: ducks, geese, frogs and dragonflies</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Big Creek Reservation' AND "LABEL_NAME" LIKE '%Beyer''s Pond Trail%'</t>
-  </si>
-  <si>
     <t>Big Creek Reservation All Purpose Trail</t>
   </si>
   <si>
     <t>8 miles of paved trail for activities like cycling, walking and in-line skating. Motorized vehicles are prohibited.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Big Creek Reservation'AND "LABEL_NAME" LIKE '%Big Creek Reservation All Purpose Trail%'</t>
-  </si>
-  <si>
     <t>Lake Isaac Trail</t>
   </si>
   <si>
     <t>1.2 miles. Your journey starts at a “glacial pothole” lake, which is an important waterfowl refuge. This easy trail winds through several habitats and a scenic overlook of Baldwin Creek.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Big Creek Reservation'AND "LABEL_NAME" LIKE '%Lake Isaac Trail%'</t>
-  </si>
-  <si>
     <t>Lake to Lake Trail</t>
   </si>
   <si>
@@ -202,54 +169,30 @@
     <t>1.4 miles of paved trail for activities like cycling, walking and in-line skating. Motorized vehicles are prohibited.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bradley Woods Reservation'AND "LABEL_NAME" LIKE '%Bradley Woods Reservation All Purpose Trail%'</t>
-  </si>
-  <si>
     <t>Bunns Lake Loop Trail</t>
   </si>
   <si>
     <t>0.5 mile. This trail loops around the lake and through the Bunns Lake Wildlife Area. This is a good place to look for waterfowl.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bradley Woods Reservation'AND "LABEL_NAME" LIKE '%Bunn%'</t>
-  </si>
-  <si>
     <t>Cahoon Creek Loop Trail</t>
   </si>
   <si>
     <t>0.6 mile. This trail loops through a mixed bottomland forest along the creek. Pileated woodpeckers frequent this area.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bradley Woods Reservation'AND "LABEL_NAME" LIKE '%Cahoon Creek Loop Trail%'</t>
-  </si>
-  <si>
     <t>Pin Oak Loop Trail</t>
   </si>
   <si>
     <t>0.8 mile. This trail starts behind the Codrington Shelterhouse Picnic Area. Many birds, such as the wood thrush and robin, nest in the forest here.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bradley Woods Reservation'AND "LABEL_NAME" LIKE '%Pin Oak Loop Trail%'</t>
-  </si>
-  <si>
     <t>Quarry Loop Trail</t>
   </si>
   <si>
     <t>2 miles. This trail traverses through forest, field and an old sandstone quarry, then returns along White Oak Lane to the parking lot.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bradley Woods Reservation'AND "LABEL_NAME" LIKE '%Quarry Loop Trail%'</t>
-  </si>
-  <si>
-    <t>Swamp Forest Loop Trail</t>
-  </si>
-  <si>
-    <t>1 mile. This trail loops through the swamp forest that drains into the headwaters of Cahoon Creek.</t>
-  </si>
-  <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bradley Woods Reservation'AND "LABEL_NAME" LIKE '%Swamp Forest Loop Trail%'</t>
-  </si>
-  <si>
     <t>Brecksville Reservation</t>
   </si>
   <si>
@@ -259,9 +202,6 @@
     <t>9.3 miles of paved trail for activities like cycling, walking and in-line skating. Motorized vehicles are prohibited.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "LABEL_NAME" LIKE '%Brecksville Reservation All Purpose Trail%'</t>
-  </si>
-  <si>
     <t>Brecksville Reservation Bridle Trail Loops</t>
   </si>
   <si>
@@ -277,72 +217,48 @@
     <t>The physical fitness trail consists of 18 exercise stations spaced over a 1.4 mile path. Each station provides a different type of exercise. Located near Chippewa Ford Field, on Valley Parkway, west of Riverview Road in Brecksville.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Brecksville Reservation'AND "LABEL_NAME" LIKE '%Brecksville Reservation Physical Fitness Trail%'</t>
-  </si>
-  <si>
     <t>Buckeye Trail, Brecksville Reservation</t>
   </si>
   <si>
     <t>16 miles. A hilly and rugged portion of the 1,200-mile Buckeye Trail travels through the reservation. The trail continues in a large loop around the state.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Brecksville Reservation'AND "LABEL_NAME" LIKE '%Buckeye Trail%'</t>
-  </si>
-  <si>
     <t>Deer Lick Cave Loop Trail</t>
   </si>
   <si>
     <t>4 miles. The unusual sandstone formation of Deer Lick Cave makes this long rugged hike worth the trip.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Brecksville Reservation'AND "LABEL_NAME" LIKE '%Deer Lick Cave Loop Trail%'</t>
-  </si>
-  <si>
     <t>Hemlock Loop Trail, Brecksville Reservation</t>
   </si>
   <si>
     <t>2.5 miles. Follow the edge of Chippewa Creek Gorge through eastern hemlocks down to the creek’s floodplain forest and up interesting ridges.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Brecksville Reservation'AND "LABEL_NAME" LIKE '%Hemlock Loop Trail%'</t>
-  </si>
-  <si>
     <t>Prairie Loop Trail</t>
   </si>
   <si>
     <t>0.5 miles This flat, paved trail goes through the Tallgrass Prairie.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Brecksville Reservation'AND "LABEL_NAME" LIKE '%Prairie Loop Trail%'</t>
-  </si>
-  <si>
     <t>Salamander Loop Trail</t>
   </si>
   <si>
     <t>1.5 miles. Partly carpeted with mosses, this trail goes around a critical spring amphibian breeding pond.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Brecksville Reservation'AND "LABEL_NAME" LIKE '%Salamander Loop Trail%'</t>
-  </si>
-  <si>
     <t>Towpath Trail, Brecksville Reservation</t>
   </si>
   <si>
     <t>3.75 miles of level trail follows the original Canal Towpath built in 1827. This trail connects to Cuyahoga Valley National Park.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "LABEL_NAME" LIKE '%Towpath Trail, Brecksville%'</t>
-  </si>
-  <si>
     <t>Wildflower Loop Trail</t>
   </si>
   <si>
     <t>0.75 mile. Explore a stream valley and visit the Harriet Keeler Memorial. Spring wildflowers are labeled on a trail from march through June.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Brecksville Reservation'AND "LABEL_NAME" LIKE '%Wildflower Loop Trail%'</t>
-  </si>
-  <si>
     <t>Brookside Reservation</t>
   </si>
   <si>
@@ -352,9 +268,6 @@
     <t>Paved trail for activities like cycling, walking and in-line skating.  Motorized vehicles are prohibited.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Brookside Reservation'AND "LABEL_NAME" LIKE '%Brookside Reservation All Purpose Trail%'</t>
-  </si>
-  <si>
     <t>Euclid Creek Reservation</t>
   </si>
   <si>
@@ -364,36 +277,24 @@
     <t>2.5 miles of paved trail for activities such as cycling, walking and in-line skating. Motorized vehicles are prohibited.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Euclid Creek Reservation'AND "LABEL_NAME" LIKE '%Euclid Creek Reservation All Purpose Trail%'</t>
-  </si>
-  <si>
     <t>Euclid Creek Reservation Physical Fitness Trail</t>
   </si>
   <si>
     <t>1.25 miles starting and finishing at Highland Picnic Area.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Euclid Creek Reservation'AND "LABEL_NAME" LIKE '%Euclid Creek Reservation Physical Fitness Trail%'</t>
-  </si>
-  <si>
     <t>Glenridge Loop Trail</t>
   </si>
   <si>
     <t>2.2 miles. Valley and ridge are visited when walking this trail, giving the opportunity to see the joining of neighborhoods to nature.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Euclid Creek Reservation'AND "LABEL_NAME" LIKE '%Glenridge Loop Trail%'</t>
-  </si>
-  <si>
     <t>Rear Quarry Trail</t>
   </si>
   <si>
     <t>.13 miles. Experience the sounds of a waterfall, rock formations suggestive of bluestone quarry days and a postcard view downstream will greet you on this trail.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Euclid Creek Reservation'AND "LABEL_NAME" LIKE '%Rear Quarry Trail%'</t>
-  </si>
-  <si>
     <t>Squirrel Run Trail</t>
   </si>
   <si>
@@ -409,9 +310,6 @@
     <t>1.1 miles. This trail travels along the floodplain for an up-close look at the pools and cascades of Euclid Creek.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Euclid Creek Reservation'AND "LABEL_NAME" LIKE '%Upper Highland Loop Trail%'</t>
-  </si>
-  <si>
     <t>Garfield Park Reservation</t>
   </si>
   <si>
@@ -430,18 +328,12 @@
     <t>Paved trail for activities such as cycling, walking and in-line skating. Motorized vehicles are prohibited.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Garfield Park Reservation'AND "LABEL_NAME" LIKE '%Garfield Park Reservation All Purpose Trail%'</t>
-  </si>
-  <si>
     <t>Iron Springs Loop Trail</t>
   </si>
   <si>
     <t>1.2 miles. This main trail through the center of Garfield Park follows portions of the old trolley route. It passes Iron Springs, Green Springs and the Old Boating Pond. All trails connect with Iron Springs Loop Trail</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Garfield Park Reservation'AND "LABEL_NAME" LIKE '%Iron Springs Loop Trail%'</t>
-  </si>
-  <si>
     <t>Meadow Trail</t>
   </si>
   <si>
@@ -457,9 +349,6 @@
     <t>0.5 mile. The scenic, hilly trail highlights a mature, wooded ravine.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Garfield Park Reservation'AND "LABEL_NAME" LIKE '%North Ravine Loop Trail%'</t>
-  </si>
-  <si>
     <t>Ridge Top Trail</t>
   </si>
   <si>
@@ -478,36 +367,24 @@
     <t>6.0 miles. A hilly and rugged portion of the 578-mile Buckeye Trail travels through Hinckley Reservation. The trail continues in a large loop around the state.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Hinckley Reservation'AND "LABEL_NAME" LIKE '%Buckeye Trail%'</t>
-  </si>
-  <si>
     <t>Hinckley Hills Loop Trail</t>
   </si>
   <si>
     <t>2.5 miles. This rugged trail crosses ravines and streams and follows sections of the Buckeye bridle trails</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Hinckley Reservation'AND "LABEL_NAME" LIKE '%Hinckley Hills Loop Trail%'</t>
-  </si>
-  <si>
     <t>Hinckley Lake Loop Trail</t>
   </si>
   <si>
     <t>3.4 miles. This trail provides many opportunities for viewing wading birds and waterfowl as it winds around Hinckley Lake.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Hinckley Reservation'AND "LABEL_NAME" LIKE '%Hinckley Lake Loop Trail%'</t>
-  </si>
-  <si>
     <t>Hinckley Reservation All Purpose Trail</t>
   </si>
   <si>
     <t>3.3 miles of paved trail for activities like cycling, walking and in-line skating. Motorized vehicles are prohibited.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Hinckley Reservation'AND "LABEL_NAME" LIKE '%Hinckley Reservation All Purpose Trail%'</t>
-  </si>
-  <si>
     <t>Hinckley Reservation Bridle Trail</t>
   </si>
   <si>
@@ -523,27 +400,18 @@
     <t>2.5 miles. Starting from Ledge Lake or Worden’s Homestead, this dirt trail meanders along creeks and out into open fields.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Hinckley Reservation'AND "LABEL_NAME" LIKE '%Ledge Lake Loop Trail%'</t>
-  </si>
-  <si>
     <t>Whipp's Ledges Loop Trail</t>
   </si>
   <si>
     <t>1.25 miles. Connecting Whipp’s Ledges and Top O’ Ledges picnic area, this hilly trail loops through spectacular 350-foot Sharon Conglomerate ledges.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Hinckley Reservation'AND "LABEL_NAME" LIKE '%Whipp''s Ledges Loop Trail%'</t>
-  </si>
-  <si>
     <t>Worden's Ledges Loop Trail</t>
   </si>
   <si>
     <t>1.0 mile. This wooded trail winds through moss- and fern-covered ledges to reveal carvings made by Noble Stuart in the 1940s.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Hinckley Reservation'AND "LABEL_NAME" LIKE '%Worden''s Ledges Loop Trail%'</t>
-  </si>
-  <si>
     <t>Huntington Reservation</t>
   </si>
   <si>
@@ -553,18 +421,12 @@
     <t>1.0 mile. For nearly a mile, this woodland trail meanders through mature forests near Porter Creek. Look for evidence of the old Interurban Railroad.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Huntington Reservation'AND "LABEL_NAME" LIKE '%Hemlock Loop Trail%'</t>
-  </si>
-  <si>
     <t>Huntington Reservation All Purpose Trail</t>
   </si>
   <si>
     <t>0.9 mile of paved trail for activities like cycling, walking and in-line skating. Motorized vehicles are prohibited.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Huntington Reservation'AND "LABEL_NAME" LIKE '%Huntington Reservation All Purpose Trail%'</t>
-  </si>
-  <si>
     <t>Porter Creek Trail</t>
   </si>
   <si>
@@ -589,9 +451,6 @@
     <t>0.8 mile. Near the Wolf Picnic Area, this trail winds its way through a typical mature Ohio forest. Look for cardinals, woodpeckers, squirrels and foxes.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Huntington Reservation'AND "LABEL_NAME" LIKE '%Songbird Loop Trail%'</t>
-  </si>
-  <si>
     <t>Mill Stream Run Reservation</t>
   </si>
   <si>
@@ -610,9 +469,6 @@
     <t>8.9 miles of paved trail for activities like cycling, walking and in-line skating. Motorized vehicles are prohibited.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Mill Stream Run Reservation'AND "LABEL_NAME" LIKE '%Mill Stream Run Reservation All Purpose Trail%'</t>
-  </si>
-  <si>
     <t>Mill Stream Run Reservation Bridle Trail</t>
   </si>
   <si>
@@ -628,18 +484,12 @@
     <t>0.3 miles. This travels along the East Branch of the Rocky River and provides views of Baldwin Lake’s wildlife refuge and a large grassy meadow.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Mill Stream Run Reservation'AND "LABEL_NAME" LIKE '%Music Mound Loop Trail%'</t>
-  </si>
-  <si>
     <t>Royalview Trail</t>
   </si>
   <si>
     <t>South Quarry Loop Trail</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Mill Stream Run Reservation'AND "LABEL_NAME" LIKE '%South Quarry Loop Trail%'</t>
-  </si>
-  <si>
     <t>Sugar Bush Trail</t>
   </si>
   <si>
@@ -649,15 +499,9 @@
     <t>Buckeye Trail, North Chagrin Reservation</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'North Chagrin Reservation'AND "LABEL_NAME" LIKE '%Buckeye Trail%'</t>
-  </si>
-  <si>
     <t>Buttermilk Falls Loop Trail</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'North Chagrin Reservation'AND "LABEL_NAME" LIKE '%Buttermilk Falls Loop Trail%'</t>
-  </si>
-  <si>
     <t>Castle Valley Trail</t>
   </si>
   <si>
@@ -682,18 +526,12 @@
     <t>1.6 miles. Follow the edge of a beautiful ravine before turning into the forest where impressive grape tangles and hardwood trees can be seen.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'North Chagrin Reservation'AND "LABEL_NAME" LIKE '%Hickory Fox Loop Trail%'</t>
-  </si>
-  <si>
     <t>North Chagrin Reservation All Purpose Trail</t>
   </si>
   <si>
     <t>4.17 miles of paved trail for activities like cycling, walking and in-line skating. Motorized vehicles are prohibited.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'North Chagrin Reservation'AND "LABEL_NAME" LIKE '%North Chagrin Reservation All Purpose Trail%'</t>
-  </si>
-  <si>
     <t>North Chagrin Reservation Bridle Trail Loops</t>
   </si>
   <si>
@@ -709,9 +547,6 @@
     <t>The physical fitness trail consists of 18 exercise stations spaced over a 1.1 mile path. Each station provides a different type of exercise. Located at the Forest Picnic Area, on Buttermilk Falls Parkway, south of the Sunset Lane entrance in Mayfield Vill</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'North Chagrin Reservation'AND "LABEL_NAME" LIKE '%North Chagrin Reservation Physical Fitness Trail%'</t>
-  </si>
-  <si>
     <t>Overlook Trail</t>
   </si>
   <si>
@@ -727,18 +562,12 @@
     <t>0.4 mile. This paved trail travels the perimeter of Sanctuary marsh where wildlife abounds. Ducks, geese, turtles, frogs and more can be seen.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'North Chagrin Reservation'AND "LABEL_NAME" LIKE '%Sanctuary Marsh Loop Trail%'</t>
-  </si>
-  <si>
     <t>Scenic Loop Trail</t>
   </si>
   <si>
     <t>1.6 miles. This trail loops back and forth alongside many steep ravines and boasts one of the best displays of spring wildflowers in North Chagrin.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'North Chagrin Reservation'AND "LABEL_NAME" LIKE '%Scenic Loop Trail%'</t>
-  </si>
-  <si>
     <t>Squire's Lane Trail</t>
   </si>
   <si>
@@ -754,27 +583,12 @@
     <t>1.25 miles. This hilly, rugged trail travels through a beech-maple climax forest along the edge of a ravine that overlooks the wetland below.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'North Chagrin Reservation'AND "LABEL_NAME" LIKE '%Sylvan Loop Trail%'</t>
-  </si>
-  <si>
     <t>White Pine Loop Trail</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'North Chagrin Reservation'AND "LABEL_NAME" LIKE '%White Pine Loop Trail%'</t>
-  </si>
-  <si>
     <t>2 mile. This trail and boardwalk pass through the only remaining stand of virgin white pine trees in the reservation. This area represents a northern forest.</t>
   </si>
   <si>
-    <t>Wildlife Management Loop Trail, North Chagrin Reservation</t>
-  </si>
-  <si>
-    <t>.6 mile. Meadows, shrubs and hardwood trees highlight this loop trail.</t>
-  </si>
-  <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'North Chagrin Reservation'AND "LABEL_NAME" LIKE '%Wildlife Management Loop Trail%'</t>
-  </si>
-  <si>
     <t>Ohio &amp; Erie Canal Reservation</t>
   </si>
   <si>
@@ -784,117 +598,78 @@
     <t>6.3 miles of paved trails for activities like cycling, walking and in-line skating. Motorized vehicles are prohibited.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Ohio &amp; Erie Canal Reservation'AND "LABEL_NAME" LIKE '%Ohio &amp; Erie Canal Reservation All Purpose Trail%'</t>
-  </si>
-  <si>
     <t>Ohio &amp; Erie Canal Reservation Mountain Bike Trail</t>
   </si>
   <si>
     <t>2 miles of challenging one-directional trail with a ¼-mile beginner loop. The majority of the bike trail is for intermediate riders and switches back and forth along the valley wall just north of CanalWay Center.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Ohio &amp; Erie Canal Reservation'AND "LABEL_NAME" LIKE '%Ohio &amp; Erie Canal Reservation Mountain Bike Trail%'</t>
-  </si>
-  <si>
     <t>Six Mile Flats Loop Trail</t>
   </si>
   <si>
     <t>0.3 miles beginning and ending off of the Towpath Trail. This natural surface  loop trail winds through woods offering quiet views of the Cuyahoga River.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Ohio &amp; Erie Canal Reservation'AND "LABEL_NAME" LIKE '%Six Mile Flats Loop Trail%'</t>
-  </si>
-  <si>
     <t>The Lower 40 Loop Trail</t>
   </si>
   <si>
     <t>0.6 miles of All Purpose Trail off of the Towpath Trail. This short loop circles abandoned farm fields turning to forests and offers glimpses of the scenic and wild Cuyahoga River.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Ohio &amp; Erie Canal Reservation'AND "LABEL_NAME" LIKE '%The Lower 40 Loop Trail%'</t>
-  </si>
-  <si>
     <t>Towpath Trail, Ohio &amp; Erie Canal Reservation</t>
   </si>
   <si>
     <t>5.7 miles of level, paved trail follows the original Canal Towpath built in 1827. This trail connects to the Cuyahoga Valley National Park at Rockside Road.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Ohio &amp; Erie Canal Reservation'AND "LABEL_NAME" LIKE '%Towpath Trail%'</t>
-  </si>
-  <si>
     <t>Rocky River Reservation</t>
   </si>
   <si>
     <t>Cedar Point Loop Trail</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Cedar Point Loop Trail%'</t>
-  </si>
-  <si>
     <t>Cottonwood Loop Trail</t>
   </si>
   <si>
     <t>0.8 miles. The level trail meanders through a wonderful flood plain forest where late spring wildflowers are spectacular. The Trailside Museum, built in 1936, was near here.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Cottonwood Loop Trail%'</t>
-  </si>
-  <si>
     <t>Fort Hill Loop Trail</t>
   </si>
   <si>
     <t>1.3 miles. This hilly trail climbs to the top of Fort Hill, which earned its name from its ancient earthworks. Views of Rocky River, 100 feet below, are wonderful all year.  This trail contains over 135 stairs.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Fort Hill Loop Trail%'</t>
-  </si>
-  <si>
     <t>Lagoon Loop Trail</t>
   </si>
   <si>
     <t>0.6 miles. This level trail follows the edge of the lagoon wetland and also is one the all-purpose trail for a short distance.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Lagoon Loop Trail%'</t>
-  </si>
-  <si>
     <t>Mastick Woods Loop Trail</t>
   </si>
   <si>
     <t>0.4 miles. This level trail winds through the picnic area and provides wonderful views of large trees that provide shaded patches.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Mastick Woods Loop Trail%'</t>
-  </si>
-  <si>
     <t>Morley Ford Loop Trail</t>
   </si>
   <si>
     <t>0.6 miles. This trail provides a close look at the river and its shale cliff, as well as the floodplain forest.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Morley Ford Loop Trail%'</t>
-  </si>
-  <si>
     <t>Mount Pleasant Loop Trail</t>
   </si>
   <si>
     <t>1.5 miles. This hilly trail runs along wetlands up to an older oak forest. The big trees with wide, spreading branches indicate that this area was once a pasture.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Mount Pleasant Loop Trail%'</t>
-  </si>
-  <si>
     <t>River Overlook Loop Trail</t>
   </si>
   <si>
     <t>0.3 miles. This sunny, level trail provides wonderful views into the Rocky River valley. Visit the Stinchomb-Groth memorials.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%River Overlook Loop Trail%'</t>
-  </si>
-  <si>
     <t>Rockcliff Springs Physical Fitness Trail</t>
   </si>
   <si>
@@ -910,9 +685,6 @@
     <t>13.6 miles of paved trail for activities like cycling, walking and in-line skating. Motorized vehicles are prohibited.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Rocky River Reservation All Purpose Trail%'</t>
-  </si>
-  <si>
     <t>Rocky River Reservation Bridle Trail</t>
   </si>
   <si>
@@ -925,9 +697,6 @@
     <t>0.7 miles. Located in a well-populated area, this nearly level trail includes a shaded section along the river.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Scenic Park Loop Trail%'</t>
-  </si>
-  <si>
     <t>Shepherd Lane Trail</t>
   </si>
   <si>
@@ -940,27 +709,18 @@
     <t>0.5 miles. This level trail encircles the pond and its associated wetlands. Most of the year, many wetland birds and animals can be seen.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%West Channel Pond Loop Trail%'</t>
-  </si>
-  <si>
     <t>Wildlife Management Loop Trail, Rocky River Reservation</t>
   </si>
   <si>
     <t>1.5 miles. Experience a myriad of habitats along this level trail. The wetlands it corsses are int eh former channel of the West Branch of the Rocky River.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Wildlife Management Loop Trail%'</t>
-  </si>
-  <si>
     <t>Woodland Loop Trail</t>
   </si>
   <si>
     <t>0.3 miles. This trail is paved and nearly level. It visits the wildflower garden and offers views of the Rocky River.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Woodland Loop Trail%'</t>
-  </si>
-  <si>
     <t>South Chagrin Reservation</t>
   </si>
   <si>
@@ -970,18 +730,12 @@
     <t>1.6 miles. See a variety of rich habitats along the Chagrin River, including bottomland forest, wetland, meadow and creek.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "LABEL_NAME" LIKE '%Blue Heron Trail%'</t>
-  </si>
-  <si>
     <t>Buckeye Trail, South Chagrin Reservation</t>
   </si>
   <si>
     <t>A portion of the 1400-mile Buckeye Trail travels through the reservation on its way around the state. Marked by blue blazes.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "LABEL_NAME" LIKE '%Buckeye Trail%'</t>
-  </si>
-  <si>
     <t>Chagrin Overlook Loop Trail</t>
   </si>
   <si>
@@ -997,27 +751,18 @@
     <t>0.8 mile. This rolling trail through mature forest journeys past an old Boy Scout pond.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "LABEL_NAME" LIKE '%Forest Loop Trail%'</t>
-  </si>
-  <si>
     <t>Hatchet Ridge Trail</t>
   </si>
   <si>
     <t>0.8 miles. A deep forest hike through the former winter camp of the Boy Scouts to spectacular views of the Chagrin River.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "LABEL_NAME" LIKE '%Hatchet Ridge Trail%'</t>
-  </si>
-  <si>
     <t>Look About Lodge Loop Trail</t>
   </si>
   <si>
     <t>0.9 miles. Walk along hemlock ravines with views of small waterfalls and woodland creeks.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "LABEL_NAME" LIKE '%Look About Lodge Loop Trail%'</t>
-  </si>
-  <si>
     <t>Persing Trail</t>
   </si>
   <si>
@@ -1033,54 +778,36 @@
     <t>0.4 mile. This short loop winds through second growth woods near the site of an old stone quarry.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "LABEL_NAME" LIKE '%Quarry Rock Loop Trail%'</t>
-  </si>
-  <si>
     <t>Shelterhouse Loop Trail</t>
   </si>
   <si>
     <t>0.7 miles. Walk along a woodland ravine to Squaw Rock Picnic Area and back.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "LABEL_NAME" LIKE '%Shelterhouse Loop Trail%'</t>
-  </si>
-  <si>
     <t>South Chagrin Reservation All Purpose Trail</t>
   </si>
   <si>
     <t>7.1 miles of paved trail for activities like cycling, walking and in-line skating. Motorized vehicles are prohibited.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "LABEL_NAME" LIKE '%South Chagrin Reservation All Purpose Trail%'</t>
-  </si>
-  <si>
     <t>South Chagrin Reservation Bridle Trail and Loops</t>
   </si>
   <si>
     <t>15.3 miles. Bicycles and motorized vehicles are prohibited.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "LABEL_NAME" LIKE '%Bridle%' OR "FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "LABEL_NAME" LIKE '%SC%'</t>
-  </si>
-  <si>
     <t>Squaw Rock Loop Trail</t>
   </si>
   <si>
     <t>0.6 mile. A challenging trail that travels the Chagrin River edge to a rock carving by Henry Church.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "LABEL_NAME" LIKE '%Squaw Rock Loop Trail%'</t>
-  </si>
-  <si>
     <t>Sulphur Springs Loop Trail</t>
   </si>
   <si>
     <t>1.1 miles. Travel this hilly trail through a forest more typical of a northern climate and cut by a coldwater stream.</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "LABEL_NAME" LIKE '%Sulphur Springs Loop Trail%'</t>
-  </si>
-  <si>
     <t>Washington Reservation All Purpose Trail</t>
   </si>
   <si>
@@ -1099,9 +826,6 @@
     <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'West Creek Reservation'AND "LABEL_NAME" LIKE '%West Creek Reservation All Purpose Trail%'</t>
   </si>
   <si>
-    <t>FOR_SHOW = 'Yes' AND "RES"  LIKE '%Mill Stream%' AND "LABEL_NAME" LIKE '%Red%' OR "FOR_SHOW" = 'Yes' AND "RES"  LIKE '%Mill Stream%' AND "LABEL_NAME" LIKE '%Yellow%'</t>
-  </si>
-  <si>
     <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Mill Stream Run Reservation'AND "LABEL_NAME" LIKE '%Sugar Bush%'</t>
   </si>
   <si>
@@ -1120,9 +844,6 @@
     <t>Wolf Picnic Area Trail</t>
   </si>
   <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Huntington Reservation'AND "LABEL_NAME" LIKE '%Wolf Picnic%'</t>
-  </si>
-  <si>
     <t>http://www.clevelandmetroparks.com/Main/Bedford-Reservation-All-Purpose-Trail.aspx</t>
   </si>
   <si>
@@ -1168,6 +889,9 @@
     <t>http://www.clevelandmetroparks.com/Main/Memphis-Trail1.aspx</t>
   </si>
   <si>
+    <t>http://www.clevelandmetroparks.com/Main/Snow-Road-Trail.aspx</t>
+  </si>
+  <si>
     <t>http://www.clevelandmetroparks.com/Main/Snow-Road-Trail1.aspx</t>
   </si>
   <si>
@@ -1189,15 +913,15 @@
     <t>http://www.clevelandmetroparks.com/Main/Quarry-Loop-Trail1.aspx</t>
   </si>
   <si>
-    <t>http://www.clevelandmetroparks.com/Main/Swamp-Forest-Loop-Trail1.aspx</t>
-  </si>
-  <si>
     <t>http://www.clevelandmetroparks.com/Main/Brecksville-Reservation-All-Purpose-Trail.aspx</t>
   </si>
   <si>
     <t>http://www.clevelandmetroparks.com/Main/Brecksville-Reservation-All-Purpose-Trail2.aspx</t>
   </si>
   <si>
+    <t>http://www.clevelandmetroparks.com/Main/Brecksville-Reservation-Bridal-Trail-Loops.aspx</t>
+  </si>
+  <si>
     <t>http://www.clevelandmetroparks.com/Main/Brecksville-Reservation-Bridal-Trail-Loops1.aspx</t>
   </si>
   <si>
@@ -1399,9 +1123,6 @@
     <t>http://www.clevelandmetroparks.com/Main/White-Pine-Loop-Trail1.aspx</t>
   </si>
   <si>
-    <t>http://www.clevelandmetroparks.com/Main/Wildlife-Management-Loop-Trail2.aspx</t>
-  </si>
-  <si>
     <t>http://www.clevelandmetroparks.com/Main/Ohio--Erie-Canal-Reservation-All-Purpose-Trail.aspx</t>
   </si>
   <si>
@@ -1534,48 +1255,24 @@
     <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%RR%' OR "FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Bridle%'</t>
   </si>
   <si>
-    <t>Washington Reservation (including Rivergate)</t>
-  </si>
-  <si>
-    <t>"FOR_SHOW" = 'Yes' AND "RES"  LIKE '%Washington Reservation%' AND "LABEL_NAME" LIKE '%Washington Reservation All Purpose Trail%'</t>
-  </si>
-  <si>
     <t>Lakefront Reservation</t>
   </si>
   <si>
     <t>Edgewater All Purpose Trail</t>
   </si>
   <si>
-    <t>"RES"  = 'Lakefront Reservation'AND "LABEL_NAME" LIKE '%Edgewater All Purpose Trail%'</t>
-  </si>
-  <si>
     <t>0.2 miles. This trail meanders by wetlands between Shepherd Lane and the Wildlife Management Trail.</t>
   </si>
   <si>
-    <t>0.4 miles. This trail follows the edge of the valley of the Rocky River West Branch to Cedar Point. Enjoy extraordinary views of the river at many points along the trail.</t>
-  </si>
-  <si>
     <t>Acacia Reservation</t>
   </si>
   <si>
     <t>Euclid Creek Reservation Lakefront All Purpose Trail</t>
   </si>
   <si>
-    <t>"LABEL_NAME"='Euclid Creek Reservation Lakefront All Purpose Trail'</t>
-  </si>
-  <si>
-    <t>West Creek Reservation Hiking Trail</t>
-  </si>
-  <si>
-    <t>"LABEL_NAME"='West Creek Reservation Hiking Trail'</t>
-  </si>
-  <si>
     <t>East 55th Marina &amp; Gordon Park All Purpose Trail</t>
   </si>
   <si>
-    <t>"RES"='Lakefront Reservation' AND "LABEL_NAME" = 'East 55th Marina &amp; Gordon Park All Purpose Trail'</t>
-  </si>
-  <si>
     <t>"RES"='Acacia Reservation' AND "LABEL_NAME" LIKE '%Trail 1%'</t>
   </si>
   <si>
@@ -1586,9 +1283,6 @@
   </si>
   <si>
     <t>Trail 2</t>
-  </si>
-  <si>
-    <t>"FOR_SHOW   = 'Yes' AND "RES"  = 'North Chagrin Reservation' AND "BRIDLE" = 'Yes'</t>
   </si>
   <si>
     <t>&lt;Strong&gt;Hours:&lt;/Strong&gt; Mountain Biking is not permitted with in the park from one-half hour after sunset until one-half hour before sunrise or when the trail is closed.&lt;br&gt;
@@ -1597,13 +1291,444 @@
   </si>
   <si>
     <t>Mountain Biking</t>
+  </si>
+  <si>
+    <t>Bedford Singletrack</t>
+  </si>
+  <si>
+    <t>Red Trail Spur</t>
+  </si>
+  <si>
+    <t>Mars Quarry</t>
+  </si>
+  <si>
+    <t>Karl's Corner</t>
+  </si>
+  <si>
+    <t>Friendship Trail</t>
+  </si>
+  <si>
+    <t>Moore Trails!</t>
+  </si>
+  <si>
+    <t>Volunteer Spirit Trail</t>
+  </si>
+  <si>
+    <t>Parallel Universe</t>
+  </si>
+  <si>
+    <t>Eddie's Wildlife Way</t>
+  </si>
+  <si>
+    <t>FOR_SHOW = 'Yes' AND "RES"  LIKE '%Mill Stream%' AND "LABEL_NAME" LIKE '%Yellow%'</t>
+  </si>
+  <si>
+    <t>0.81 mile section of the Bedford Singletrack. The most technical section of the trail network contains a challenging climb, a short rock garden and a flow section. Mountain bikers begin near Egbert Road and ride north. Be cautious of hikers moving in the opposite direction.</t>
+  </si>
+  <si>
+    <t>0.34 mile section of the Bedford Singletrack. A short, out-and-back loop with a fun downhill section with some tight turns. Mountain bikers ride the loop counter-clockwise. Be cautious of hikers moving in the opposite direction.</t>
+  </si>
+  <si>
+    <t>1.16 miles of the Bedford Singletrack.</t>
+  </si>
+  <si>
+    <t>0.87 mile section of the Bedford Singletrack. Sections of Singletrack runs primarily uphill and shares two sections of bridle trail. Mountain bikers begin north of the parking lot near Bridal Veil Falls and head north. Be cautious of hikers moving in the opposite direction and always stop for horses.</t>
+  </si>
+  <si>
+    <t>0.36 mile section of the Bedford Singletrack. A short that features a fun-tight, downhill section. Mountain bikers ride the section clockwise. Be cautious of hikers moving in the opposite direction.</t>
+  </si>
+  <si>
+    <t>0.82 mile section of the Bedford Singletrack. A gentle Rolling trail with a pullout available at Egbert Picnic Area.Mountain bikers ride the section clockwise. Be cautious of hikers moving in the opposite direction.</t>
+  </si>
+  <si>
+    <t>Two 0.66 mile sections of the Bedford Singletrack. Two short, shared use sections before a steep rolling climb followed by a long downhill flow. The section is broken up by a connection along the All-Purpose Trail (0.13 mile) and is tucked in along the Shawnee Golf Course. Mountain bikers ride from north to south. Be cautious of hikers moving in the opposite direction.</t>
+  </si>
+  <si>
+    <t>9.28 miles. Composed of 10 distinct sections connected by stretches of APT, the Bedford Singletrack is a reservation-wide loop spanning from Dunham Road to Egbert Picnic Area. Be cautious of other users and always stop for horseback riders. The trail runs in one direction so please observe signs for direction and safety.</t>
+  </si>
+  <si>
+    <t>9.28 miles. Composed of 10 distinct sections connected by stretches of APT, the Bedford Singletrack is a reservation-wide loop. Be cautious of other users and always stop for horseback riders. The trail runs in one direction so please observe signs for direction and safety.</t>
+  </si>
+  <si>
+    <t>&lt;Strong&gt;Hours:&lt;/Strong&gt; Mountain Biking is not permitted with in the park from one-half hour after sunset until one-half hour before sunrise or when the trail is closed.&lt;br&gt;
+&lt;strong&gt;Yellow Trail:&lt;/strong&gt; 5.7 miles bike or hike. This trail meanders through young forests and passes by an old foundation and chimney. Enjoy gentle climbs and beautiful creek views.&lt;br&gt; 
+&lt;strong&gt;Red Trail:&lt;/strong&gt; 4.3 miles bike or hike. The Red Loop offers challenging slopes and ravines with dramatic river views through a quiet pine forest. It also features an optional “out and back” section that is 1.16 miles round trip.</t>
+  </si>
+  <si>
+    <t>Yellow Loop Trail</t>
+  </si>
+  <si>
+    <t>Red Loop Trail</t>
+  </si>
+  <si>
+    <t>5.7 miles. This trail meanders through young forests and passes by an old foundation and chimney. Enjoy gentle climbs and beautiful creek views.</t>
+  </si>
+  <si>
+    <t>4.3 miles. The Red Loop offers challenging slopes and ravines with dramatic river views through a quiet pine forest.</t>
+  </si>
+  <si>
+    <t>1.9 mile optional out and back section connected to the Red Trail.</t>
+  </si>
+  <si>
+    <t>Washington Reservation</t>
+  </si>
+  <si>
+    <t>FOR_SHOW = 'Yes' AND "RES"  = 'Bedford Reservation'AND "LABEL_NAME" LIKE '%Forbes Loop%'</t>
+  </si>
+  <si>
+    <t>"LABEL_NAME" LIKE '%Friendship Trail%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bedford Reservation'AND "LABEL_NAME" LIKE '%Hemlock Loop%'</t>
+  </si>
+  <si>
+    <t>"LABEL_NAME" LIKE '%Mars Quarry%'</t>
+  </si>
+  <si>
+    <t>"LABEL_NAME" LIKE '%Karl%' AND "RES" = 'Bedford Reservation'</t>
+  </si>
+  <si>
+    <t>"LABEL_NAME" LIKE '%Eddie%' AND "RES" = 'Bedford Reservation'</t>
+  </si>
+  <si>
+    <t>"LABEL_NAME" LIKE '%Moore%' AND "RES" = 'Bedford Reservation'</t>
+  </si>
+  <si>
+    <t>"LABEL_NAME" LIKE '%Parallel Universe%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bedford Reservation'AND "LABEL_NAME" LIKE '%Sagamore Creek Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bedford Reservation'AND "LABEL_NAME" LIKE '%Viaduct Park%'</t>
+  </si>
+  <si>
+    <t>"LABEL_NAME" LIKE '%Volunteer Spirit%'</t>
+  </si>
+  <si>
+    <t>Wight Oaks Loop</t>
+  </si>
+  <si>
+    <t>Can be ridden as a dedicated beginner loop (1.9 mile) or a connection for the entire cross-country circuit. Mountain bikers ride the loop clockwise. Be cautious of hikers moving in the opposite direction.</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bedford Reservation'AND "LABEL_NAME" LIKE '%Fitness Trail%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Big Creek Reservation'AND "LABEL_NAME" LIKE '%Lake Isaac%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bradley Woods Reservation'AND "LABEL_NAME" LIKE '%Bunn Lake Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bradley Woods Reservation'AND "LABEL_NAME" LIKE '%Cahoon Creek Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bradley Woods Reservation'AND "LABEL_NAME" LIKE '%Pin Oak Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bradley Woods Reservation'AND "LABEL_NAME" LIKE '%Quarry%'</t>
+  </si>
+  <si>
+    <t>"LABEL_NAME" LIKE '%Wight Oaks Loop%' AND "for_show" = 'Yes'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Brecksville Reservation'AND "LABEL_NAME" LIKE '%Physical Fitness%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Brecksville Reservation'AND "LABEL_NAME" LIKE '%Deer Lick Cave Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Brecksville Reservation'AND "LABEL_NAME" LIKE '%Salamander Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Brecksville Reservation'AND "LABEL_NAME" LIKE '%Wildflower Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Euclid Creek Reservation'AND "LABEL_NAME" LIKE '%Glenridge Loop%'</t>
+  </si>
+  <si>
+    <t>"RES"  = 'Euclid Creek Reservation'AND "LABEL_NAME" LIKE '%Rear Quarry%' AND "FOR_SHOW" = 'Yes'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Euclid Creek Reservation'AND "LABEL_NAME" LIKE '%Upper Highland%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Garfield Park Reservation'AND "LABEL_NAME" LIKE '%Iron Springs Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Garfield Park Reservation'AND "LABEL_NAME" LIKE '%North Ravine Loop%'</t>
+  </si>
+  <si>
+    <t>FOR_SHOW = 'Yes' AND "RES"  = 'Huntington Reservation'AND "LABEL_NAME" LIKE '%Hemlock%'</t>
+  </si>
+  <si>
+    <t>FOR_SHOW = 'Yes' AND "RES"  = 'Huntington Reservation'AND "LABEL_NAME" LIKE '%Songbird%'</t>
+  </si>
+  <si>
+    <t>FOR_SHOW = 'Yes' AND "RES"  = 'Huntington Reservation'AND "LABEL_NAME" LIKE '%Wolf%'</t>
+  </si>
+  <si>
+    <t>FOR_SHOW = 'Yes' AND "RES"  = 'Huntington Reservation'AND "LABEL_NAME" LIKE '%All Purpose%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bradley Woods Reservation'AND "LABEL_NAME" LIKE '%All Purpose%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Cedar Point%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Cottonwood Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Fort Hill Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Lagoon Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Mastick Woods%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Morley Ford%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Mount Pleasant%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%River Overlook%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%All Purpose%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Scenic Park Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%West Channel Pond Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Wildlife Management Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Rocky River Reservation'AND "LABEL_NAME" LIKE '%Woodland Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Mill Stream Run Reservation'AND "LABEL_NAME" LIKE '%All Purpose%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Mill Stream Run Reservation'AND "LABEL_NAME" LIKE '%Music Mound%'</t>
+  </si>
+  <si>
+    <t>RES LIKE '%Mill Stream%' AND "LABEL_NAME" LIKE '%Red Loop%'</t>
+  </si>
+  <si>
+    <t>"LABEL_NAME" LIKE '%Red Trail Spur%'</t>
+  </si>
+  <si>
+    <t>RES LIKE '%Mill Stream%' AND "LABEL_NAME" LIKE '%Yellow Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Mill Stream Run Reservation'AND "LABEL_NAME" LIKE '%South Quarry%'</t>
+  </si>
+  <si>
+    <t>"RES" LIKE '%Brecksville%' AND "FOR_SHOW" = 'Yes' AND "LABEL_NAME" LIKE '%All Purpose%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Brecksville Reservation'AND "LABEL_NAME" LIKE '%Prairie%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Brecksville Reservation'AND "LABEL_NAME" LIKE '%Hemlock%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "LABEL_NAME" LIKE '%Towpath%' AND "RES" = 'Brecksville Reservation/CVNP'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Brookside Reservation'AND "LABEL_NAME" LIKE '%All Purpose Trail%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "LABEL_NAME" LIKE '%All Purpose%' AND "RES" = 'Bedford Reservation'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "MtnBike"  = 'Yes' AND "RES" = 'Bedford Reservation' AND "FOR_SHOW" = 'Yes'</t>
+  </si>
+  <si>
+    <t>Touch Stone Loop</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES" = 'Bedford Reservation' AND "LABEL_NAME" LIKE '%Touch Stone%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "LABEL_NAME" LIKE '%Blue Heron%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "LABEL_NAME" LIKE '%Forest Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "LABEL_NAME" LIKE '%Hatchet Ridge%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "LABEL_NAME" LIKE '%Look About Lodge Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "LABEL_NAME" LIKE '%Quarry Rock%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "LABEL_NAME" LIKE '%Shelterhouse Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "LABEL_NAME" LIKE '%All Purpose%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "LABEL_NAME" LIKE '%Squaw Rock Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "LABEL_NAME" LIKE '%Sulphur Springs Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'North Chagrin Reservation'AND "LABEL_NAME" LIKE '%Buttermilk Falls Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'North Chagrin Reservation'AND "LABEL_NAME" LIKE '%Hickory Fox Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'North Chagrin Reservation'AND "LABEL_NAME" LIKE '%All Purpose%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'North Chagrin Reservation'AND "LABEL_NAME" LIKE '%Fitness Trail%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'North Chagrin Reservation'AND "LABEL_NAME" LIKE '%Sanctuary Marsh%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'North Chagrin Reservation'AND "LABEL_NAME" LIKE '%Scenic Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'North Chagrin Reservation'AND "LABEL_NAME" LIKE '%Sylvan Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'North Chagrin Reservation'AND "LABEL_NAME" LIKE '%White Pine Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Euclid Creek Reservation'AND "LABEL_NAME" ='All Purpose Trail' OR "FOR_SHOW" = 'Yes' AND "RES"  = 'Euclid Creek Reservation'AND "LABEL_NAME" ='All Purpose Trail + Physical Fitness Trail'</t>
+  </si>
+  <si>
+    <t>"RES" = 'Euclid Creek Reservation' AND "FOR_SHOW" = 'Yes' AND "LABEL_NAME"='Lakefront All Purpose Trail'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Euclid Creek Reservation'AND "LABEL_NAME" LIKE '%Fitness Trail%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Garfield Park Reservation'AND "LABEL_NAME" LIKE '%All Purpose%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Hinckley Reservation'AND "LABEL_NAME" LIKE '%Hinckley Hills Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Hinckley Reservation'AND "LABEL_NAME" LIKE '%Hinckley Lake Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Hinckley Reservation'AND "LABEL_NAME" LIKE '%All Purpose Trail%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Hinckley Reservation'AND "LABEL_NAME" LIKE '%Ledge Lake Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Hinckley Reservation'AND "LABEL_NAME" LIKE '%Whipp%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Hinckley Reservation'AND "LABEL_NAME" LIKE '%Worden%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Big Creek Reservation' AND "LABEL_NAME" = 'Beyer''s Pond Trail' OR "FOR_SHOW" = 'Yes' AND "RES"  = 'Big Creek Reservation' AND "LABEL_NAME" = 'Beyer''s Pond Loop'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Big Creek Reservation'AND "LABEL_NAME" LIKE '%All Purpose%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Ohio &amp; Erie Canal Reservation'AND "LABEL_NAME" LIKE '%All Purpose%' OR "FOR_SHOW" = 'Yes' AND "RES"  = 'Ohio &amp; Erie Canal Reservation'AND "LABEL_NAME" LIKE '%Towpath%'  OR "FOR_SHOW" = 'Yes' AND "RES"  = 'Ohio &amp; Erie Canal Reservation'AND "LABEL_NAME" LIKE '%Lower 40%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Ohio &amp; Erie Canal Reservation'AND "MTNBIKE" = 'Yes'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Ohio &amp; Erie Canal Reservation'AND "LABEL_NAME" LIKE '%Six Mile Flats Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Ohio &amp; Erie Canal Reservation'AND "LABEL_NAME" LIKE '%The Lower 40 Loop%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Ohio &amp; Erie Canal Reservation'AND "LABEL_NAME" LIKE '%Towpath%'</t>
+  </si>
+  <si>
+    <t>0.7 mile. This trail follows the edge of the valley of the Rocky River West Branch to Cedar Point. Enjoy extraordinary views of the river at many points along the trail.</t>
+  </si>
+  <si>
+    <t>"RES"='Lakefront Reservation' AND "LABEL_NAME" = 'Cleveland Lakefront Bikeway' AND "FOR_SHOW" = 'Yes'</t>
+  </si>
+  <si>
+    <t>"RES"  = 'Lakefront Reservation'AND "LABEL_NAME" LIKE '%Edgewater%' AND "FOR_SHOW" = 'Yes'</t>
+  </si>
+  <si>
+    <t>"RES"  = 'Lakefront Reservation'AND "LABEL_NAME" LIKE '%Lower Edgewater%' AND "FOR_SHOW" = 'Yes'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  LIKE '%Washington Reservation%' AND "LABEL_NAME" LIKE '%All Purpose%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'West Creek Reservation'AND "LABEL_NAME" LIKE '%All Purpose%'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES" = 'West Creek Reservation' AND "LABEL_NAME"='Jewelwing Loop'</t>
+  </si>
+  <si>
+    <t>Jewelwing Loop</t>
+  </si>
+  <si>
+    <t>Wetland Loop</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES" = 'West Creek Reservation' AND "LABEL_NAME"='Wetland Loop'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES" = 'West Creek Reservation' AND "LABEL_NAME"='Skinner'</t>
+  </si>
+  <si>
+    <t>Skinner's Run Trail</t>
+  </si>
+  <si>
+    <t>Center Park Trail</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES" = 'West Creek Reservation' AND "LABEL_NAME"='Center Park'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bedford Reservation'AND "buckeyetr" = 'Yes'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Brecksville Reservation'AND "buckeyetr" = 'Yes'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Hinckley Reservation'AND "buckeyetr" = 'Yes'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'North Chagrin Reservation'AND "buckeyetr" = 'Yes'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "buckeyetr" = 'Yes'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'Bedford Reservation'AND "bridle" = 'Yes'</t>
+  </si>
+  <si>
+    <t>"FOR_SHOW" = 'Yes' AND "RES"  = 'South Chagrin Reservation'AND "bridle" = 'Yes'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -1623,6 +1748,12 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="MS Sans Serif"/>
       <family val="2"/>
     </font>
@@ -1651,7 +1782,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1660,6 +1791,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1962,26 +2094,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J213"/>
+  <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="71.7109375" customWidth="1"/>
-    <col min="7" max="7" width="52.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="215.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" customWidth="1"/>
+    <col min="8" max="8" width="42" customWidth="1"/>
     <col min="9" max="9" width="254.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2015,66 +2147,48 @@
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>415</v>
       </c>
       <c r="E2">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
+        <v>420</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>418</v>
       </c>
       <c r="J2">
-        <v>55</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>415</v>
       </c>
       <c r="E3">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
+        <v>421</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>419</v>
       </c>
       <c r="J3">
-        <v>88</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2085,623 +2199,605 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>384</v>
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>508</v>
       </c>
       <c r="J4">
-        <v>103</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>391</v>
+        <v>276</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="J5">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>402</v>
+        <v>277</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>111</v>
+        <v>565</v>
       </c>
       <c r="J6">
-        <v>132</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>507</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>326</v>
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>278</v>
       </c>
       <c r="G7" t="s">
-        <v>517</v>
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>518</v>
+        <v>565</v>
       </c>
       <c r="J7">
-        <v>244</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>279</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
-        <v>507</v>
-      </c>
-      <c r="E8">
-        <v>321</v>
-      </c>
-      <c r="G8" t="s">
-        <v>508</v>
-      </c>
       <c r="I8" t="s">
-        <v>509</v>
+        <v>463</v>
       </c>
       <c r="J8">
-        <v>169</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>85</v>
-      </c>
-      <c r="F9" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" t="s">
-        <v>115</v>
+        <v>424</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="J9">
-        <v>157</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>423</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="G10" t="s">
-        <v>513</v>
-      </c>
-      <c r="I10" t="s">
-        <v>514</v>
+        <v>424</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="J10">
-        <v>248</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="E11">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>412</v>
+        <v>280</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" t="s">
-        <v>137</v>
+        <v>22</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>560</v>
       </c>
       <c r="J11">
-        <v>115</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>125</v>
-      </c>
-      <c r="F12" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="G12" t="s">
-        <v>160</v>
+        <v>432</v>
       </c>
       <c r="H12" t="s">
-        <v>161</v>
+        <v>436</v>
       </c>
       <c r="I12" t="s">
-        <v>162</v>
+        <v>455</v>
       </c>
       <c r="J12">
-        <v>15</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>423</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>130</v>
-      </c>
-      <c r="F13" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="G13" t="s">
-        <v>179</v>
+        <v>432</v>
       </c>
       <c r="H13" t="s">
-        <v>180</v>
+        <v>436</v>
       </c>
       <c r="I13" t="s">
-        <v>181</v>
+        <v>455</v>
       </c>
       <c r="J13">
-        <v>148</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E14">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>381</v>
+        <v>281</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>450</v>
       </c>
       <c r="J14">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>200</v>
-      </c>
-      <c r="F15" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="G15" t="s">
-        <v>195</v>
+        <v>428</v>
       </c>
       <c r="H15" t="s">
-        <v>196</v>
+        <v>437</v>
       </c>
       <c r="I15" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="J15">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>423</v>
       </c>
       <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" t="s">
-        <v>208</v>
-      </c>
       <c r="E16">
-        <v>210</v>
-      </c>
-      <c r="F16" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="G16" t="s">
-        <v>222</v>
+        <v>428</v>
       </c>
       <c r="H16" t="s">
-        <v>223</v>
+        <v>437</v>
       </c>
       <c r="I16" t="s">
-        <v>224</v>
+        <v>451</v>
       </c>
       <c r="J16">
-        <v>158</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="E17">
-        <v>219</v>
+        <v>113</v>
       </c>
       <c r="F17" t="s">
-        <v>461</v>
+        <v>282</v>
       </c>
       <c r="G17" t="s">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>254</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>255</v>
+        <v>452</v>
       </c>
       <c r="J17">
-        <v>122</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>525</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>220</v>
-      </c>
-      <c r="F18" t="s">
-        <v>463</v>
+        <v>406</v>
       </c>
       <c r="G18" t="s">
-        <v>256</v>
+        <v>427</v>
       </c>
       <c r="H18" t="s">
-        <v>257</v>
+        <v>435</v>
       </c>
       <c r="I18" t="s">
-        <v>258</v>
+        <v>454</v>
       </c>
       <c r="J18">
-        <v>122</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>423</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="E19">
-        <v>269</v>
-      </c>
-      <c r="F19" t="s">
-        <v>476</v>
+        <v>405</v>
       </c>
       <c r="G19" t="s">
-        <v>295</v>
+        <v>427</v>
       </c>
       <c r="H19" t="s">
-        <v>296</v>
+        <v>435</v>
       </c>
       <c r="I19" t="s">
-        <v>297</v>
+        <v>454</v>
       </c>
       <c r="J19">
-        <v>96</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>525</v>
+        <v>15</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="E20">
-        <v>274</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="G20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>360</v>
+        <v>426</v>
+      </c>
+      <c r="H20" t="s">
+        <v>434</v>
+      </c>
+      <c r="I20" t="s">
+        <v>453</v>
       </c>
       <c r="J20">
-        <v>19</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>423</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>314</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>238</v>
-      </c>
-      <c r="F21" t="s">
-        <v>494</v>
+        <v>401</v>
       </c>
       <c r="G21" t="s">
-        <v>342</v>
+        <v>426</v>
       </c>
       <c r="H21" t="s">
-        <v>343</v>
+        <v>434</v>
       </c>
       <c r="I21" t="s">
-        <v>344</v>
+        <v>453</v>
       </c>
       <c r="J21">
-        <v>110</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>505</v>
+        <v>11</v>
       </c>
       <c r="E22">
-        <v>293</v>
-      </c>
-      <c r="F22" t="s">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G22" t="s">
-        <v>354</v>
+        <v>429</v>
       </c>
       <c r="H22" t="s">
-        <v>355</v>
+        <v>438</v>
       </c>
       <c r="I22" t="s">
-        <v>506</v>
+        <v>456</v>
       </c>
       <c r="J22">
-        <v>138</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>423</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>356</v>
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>298</v>
-      </c>
-      <c r="F23" t="s">
-        <v>502</v>
+        <v>411</v>
       </c>
       <c r="G23" t="s">
-        <v>357</v>
+        <v>429</v>
       </c>
       <c r="H23" t="s">
-        <v>358</v>
+        <v>438</v>
       </c>
       <c r="I23" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="J23">
-        <v>83</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -2713,19 +2809,16 @@
         <v>11</v>
       </c>
       <c r="E24">
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>431</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
+        <v>440</v>
       </c>
       <c r="I24" t="s">
-        <v>23</v>
+        <v>457</v>
       </c>
       <c r="J24">
         <v>77</v>
@@ -2733,130 +2826,115 @@
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>423</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>415</v>
+      </c>
+      <c r="G25" t="s">
+        <v>431</v>
+      </c>
+      <c r="H25" t="s">
+        <v>440</v>
+      </c>
+      <c r="I25" t="s">
+        <v>457</v>
+      </c>
+      <c r="J25">
         <v>77</v>
-      </c>
-      <c r="E25">
-        <v>33</v>
-      </c>
-      <c r="F25" t="s">
-        <v>394</v>
-      </c>
-      <c r="G25" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J25">
-        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="E26">
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="F26" t="s">
-        <v>406</v>
+        <v>283</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="I26" t="s">
-        <v>118</v>
+        <v>458</v>
       </c>
       <c r="J26">
-        <v>157</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="D27" t="s">
-        <v>208</v>
-      </c>
       <c r="E27">
-        <v>212</v>
-      </c>
-      <c r="F27" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="G27" t="s">
-        <v>228</v>
-      </c>
-      <c r="H27" t="s">
-        <v>229</v>
+        <v>510</v>
       </c>
       <c r="I27" t="s">
-        <v>230</v>
+        <v>511</v>
       </c>
       <c r="J27">
-        <v>155</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>423</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="E28">
-        <v>264</v>
-      </c>
-      <c r="F28" t="s">
-        <v>475</v>
+        <v>417</v>
       </c>
       <c r="G28" t="s">
-        <v>292</v>
-      </c>
-      <c r="H28" t="s">
-        <v>293</v>
+        <v>510</v>
       </c>
       <c r="I28" t="s">
-        <v>294</v>
+        <v>511</v>
       </c>
       <c r="J28">
-        <v>143</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2864,7 +2942,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2873,22 +2951,22 @@
         <v>11</v>
       </c>
       <c r="E29">
-        <v>15</v>
+        <v>285</v>
       </c>
       <c r="F29" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>459</v>
       </c>
       <c r="J29">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2896,7 +2974,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2905,54 +2983,48 @@
         <v>11</v>
       </c>
       <c r="E30">
-        <v>16</v>
-      </c>
-      <c r="F30" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>430</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>460</v>
       </c>
       <c r="J30">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>423</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E31">
-        <v>22</v>
-      </c>
-      <c r="F31" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>430</v>
       </c>
       <c r="H31" t="s">
-        <v>41</v>
+        <v>439</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>460</v>
       </c>
       <c r="J31">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2960,63 +3032,57 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E32">
-        <v>25</v>
-      </c>
-      <c r="F32" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>461</v>
       </c>
       <c r="H32" t="s">
-        <v>44</v>
+        <v>462</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>469</v>
       </c>
       <c r="J32">
-        <v>88</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>423</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>314</v>
+        <v>11</v>
       </c>
       <c r="E33">
-        <v>29</v>
-      </c>
-      <c r="F33" t="s">
-        <v>485</v>
+        <v>403</v>
       </c>
       <c r="G33" t="s">
-        <v>315</v>
+        <v>461</v>
       </c>
       <c r="H33" t="s">
-        <v>316</v>
+        <v>462</v>
       </c>
       <c r="I33" t="s">
-        <v>317</v>
+        <v>469</v>
       </c>
       <c r="J33">
-        <v>109</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3024,63 +3090,63 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E34">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" t="s">
         <v>32</v>
       </c>
-      <c r="F34" t="s">
-        <v>385</v>
-      </c>
-      <c r="G34" t="s">
-        <v>59</v>
-      </c>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>61</v>
+        <v>539</v>
       </c>
       <c r="J34">
-        <v>103</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="E35">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>286</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s">
         <v>35</v>
       </c>
-      <c r="F35" t="s">
-        <v>392</v>
-      </c>
-      <c r="G35" t="s">
-        <v>78</v>
-      </c>
-      <c r="H35" t="s">
-        <v>79</v>
-      </c>
       <c r="I35" t="s">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="J35">
-        <v>41</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3088,31 +3154,31 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="E36">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F36" t="s">
-        <v>403</v>
+        <v>287</v>
       </c>
       <c r="G36" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="I36" t="s">
-        <v>111</v>
+        <v>540</v>
       </c>
       <c r="J36">
-        <v>132</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3120,63 +3186,63 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E37">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="F37" t="s">
-        <v>373</v>
+        <v>287</v>
       </c>
       <c r="G37" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I37" t="s">
-        <v>26</v>
+        <v>464</v>
       </c>
       <c r="J37">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="E38">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="F38" t="s">
-        <v>395</v>
+        <v>288</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="H38" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="I38" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="J38">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3184,63 +3250,63 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="E39">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="F39" t="s">
-        <v>418</v>
+        <v>289</v>
       </c>
       <c r="G39" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="I39" t="s">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="J39">
-        <v>6</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C40">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>208</v>
+        <v>31</v>
       </c>
       <c r="E40">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="F40" t="s">
-        <v>444</v>
+        <v>290</v>
       </c>
       <c r="G40" t="s">
-        <v>209</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>364</v>
+        <v>44</v>
+      </c>
+      <c r="H40" t="s">
+        <v>45</v>
       </c>
       <c r="I40" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="J40">
-        <v>153</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3248,60 +3314,60 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>314</v>
+        <v>31</v>
       </c>
       <c r="E41">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="F41" t="s">
-        <v>486</v>
+        <v>291</v>
       </c>
       <c r="G41" t="s">
-        <v>318</v>
+        <v>44</v>
       </c>
       <c r="H41" t="s">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="I41" t="s">
-        <v>320</v>
+        <v>46</v>
       </c>
       <c r="J41">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>386</v>
+        <v>292</v>
       </c>
       <c r="G42" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I42" t="s">
-        <v>64</v>
+        <v>483</v>
       </c>
       <c r="J42">
         <v>103</v>
@@ -3312,31 +3378,31 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="E43">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>435</v>
+        <v>293</v>
       </c>
       <c r="G43" t="s">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="H43" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="I43" t="s">
-        <v>194</v>
+        <v>483</v>
       </c>
       <c r="J43">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3344,31 +3410,31 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="E44">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F44" t="s">
-        <v>445</v>
+        <v>294</v>
       </c>
       <c r="G44" t="s">
-        <v>211</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>363</v>
+        <v>50</v>
+      </c>
+      <c r="H44" t="s">
+        <v>51</v>
       </c>
       <c r="I44" t="s">
-        <v>212</v>
+        <v>465</v>
       </c>
       <c r="J44">
-        <v>160</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3376,28 +3442,28 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E45">
         <v>57</v>
       </c>
       <c r="F45" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="G45" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I45" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="J45">
         <v>103</v>
@@ -3408,31 +3474,31 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="E46">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="F46" t="s">
-        <v>446</v>
+        <v>296</v>
       </c>
       <c r="G46" t="s">
-        <v>213</v>
+        <v>54</v>
       </c>
       <c r="H46" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="I46" t="s">
-        <v>215</v>
+        <v>467</v>
       </c>
       <c r="J46">
-        <v>167</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3440,63 +3506,63 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>243</v>
       </c>
       <c r="F47" t="s">
-        <v>411</v>
+        <v>297</v>
       </c>
       <c r="G47" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="H47" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="I47" t="s">
-        <v>134</v>
+        <v>468</v>
       </c>
       <c r="J47">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>268</v>
+        <v>58</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>467</v>
+        <v>298</v>
       </c>
       <c r="G48" t="s">
-        <v>269</v>
+        <v>59</v>
       </c>
       <c r="H48" t="s">
-        <v>511</v>
+        <v>60</v>
       </c>
       <c r="I48" t="s">
-        <v>270</v>
+        <v>503</v>
       </c>
       <c r="J48">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3504,31 +3570,31 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>314</v>
+        <v>58</v>
       </c>
       <c r="E49">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>487</v>
+        <v>299</v>
       </c>
       <c r="G49" t="s">
-        <v>321</v>
+        <v>59</v>
       </c>
       <c r="H49" t="s">
-        <v>322</v>
+        <v>60</v>
       </c>
       <c r="I49" t="s">
-        <v>323</v>
+        <v>503</v>
       </c>
       <c r="J49">
-        <v>130</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3536,89 +3602,95 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>268</v>
+        <v>58</v>
       </c>
       <c r="E50">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>468</v>
+        <v>300</v>
       </c>
       <c r="G50" t="s">
-        <v>271</v>
+        <v>61</v>
       </c>
       <c r="H50" t="s">
-        <v>272</v>
+        <v>62</v>
       </c>
       <c r="I50" t="s">
-        <v>273</v>
+        <v>63</v>
       </c>
       <c r="J50">
-        <v>117</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C51">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E51">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>396</v>
+        <v>301</v>
       </c>
       <c r="G51" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="H51" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I51" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="J51">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>507</v>
+        <v>58</v>
       </c>
       <c r="E52">
-        <v>326</v>
+        <v>33</v>
+      </c>
+      <c r="F52" t="s">
+        <v>302</v>
       </c>
       <c r="G52" t="s">
-        <v>517</v>
+        <v>64</v>
+      </c>
+      <c r="H52" t="s">
+        <v>65</v>
       </c>
       <c r="I52" t="s">
-        <v>518</v>
+        <v>470</v>
       </c>
       <c r="J52">
-        <v>244</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3626,25 +3698,31 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>507</v>
+        <v>58</v>
       </c>
       <c r="E53">
-        <v>321</v>
+        <v>47</v>
+      </c>
+      <c r="F53" t="s">
+        <v>303</v>
       </c>
       <c r="G53" t="s">
-        <v>508</v>
+        <v>66</v>
+      </c>
+      <c r="H53" t="s">
+        <v>67</v>
       </c>
       <c r="I53" t="s">
-        <v>509</v>
+        <v>561</v>
       </c>
       <c r="J53">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3652,31 +3730,31 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="E54">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F54" t="s">
-        <v>405</v>
+        <v>304</v>
       </c>
       <c r="G54" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="H54" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="I54" t="s">
-        <v>115</v>
+        <v>471</v>
       </c>
       <c r="J54">
-        <v>157</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3684,25 +3762,31 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="E55">
-        <v>325</v>
+        <v>114</v>
+      </c>
+      <c r="F55" t="s">
+        <v>305</v>
       </c>
       <c r="G55" t="s">
-        <v>513</v>
+        <v>70</v>
+      </c>
+      <c r="H55" t="s">
+        <v>71</v>
       </c>
       <c r="I55" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="J55">
-        <v>248</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3710,31 +3794,31 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E56">
-        <v>88</v>
+        <v>242</v>
       </c>
       <c r="F56" t="s">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="G56" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I56" t="s">
-        <v>29</v>
+        <v>504</v>
       </c>
       <c r="J56">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3742,31 +3826,31 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>314</v>
+        <v>58</v>
       </c>
       <c r="E57">
-        <v>89</v>
+        <v>278</v>
       </c>
       <c r="F57" t="s">
-        <v>488</v>
+        <v>307</v>
       </c>
       <c r="G57" t="s">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="H57" t="s">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="I57" t="s">
-        <v>326</v>
+        <v>472</v>
       </c>
       <c r="J57">
-        <v>107</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3774,31 +3858,31 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>268</v>
+        <v>58</v>
       </c>
       <c r="E58">
-        <v>94</v>
+        <v>276</v>
       </c>
       <c r="F58" t="s">
-        <v>469</v>
+        <v>308</v>
       </c>
       <c r="G58" t="s">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="H58" t="s">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="I58" t="s">
-        <v>276</v>
+        <v>506</v>
       </c>
       <c r="J58">
-        <v>96</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3806,63 +3890,63 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="E59">
-        <v>99</v>
+        <v>305</v>
       </c>
       <c r="F59" t="s">
-        <v>413</v>
+        <v>309</v>
       </c>
       <c r="G59" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="I59" t="s">
-        <v>137</v>
+        <v>473</v>
       </c>
       <c r="J59">
-        <v>115</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E60">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>407</v>
+        <v>310</v>
       </c>
       <c r="G60" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s">
-        <v>121</v>
+        <v>507</v>
       </c>
       <c r="J60">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3870,63 +3954,63 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="E61">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>489</v>
+        <v>311</v>
       </c>
       <c r="G61" t="s">
-        <v>327</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s">
-        <v>328</v>
+        <v>82</v>
       </c>
       <c r="I61" t="s">
-        <v>329</v>
+        <v>507</v>
       </c>
       <c r="J61">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="E62">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F62" t="s">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I62" t="s">
-        <v>32</v>
+        <v>529</v>
       </c>
       <c r="J62">
-        <v>64</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3934,63 +4018,57 @@
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E63">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="F63" t="s">
-        <v>397</v>
+        <v>313</v>
       </c>
       <c r="G63" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H63" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I63" t="s">
-        <v>95</v>
+        <v>529</v>
       </c>
       <c r="J63">
-        <v>41</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C64">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="E64">
-        <v>115</v>
-      </c>
-      <c r="F64" t="s">
-        <v>428</v>
+        <v>325</v>
       </c>
       <c r="G64" t="s">
-        <v>176</v>
-      </c>
-      <c r="H64" t="s">
-        <v>177</v>
+        <v>416</v>
       </c>
       <c r="I64" t="s">
-        <v>178</v>
+        <v>530</v>
       </c>
       <c r="J64">
-        <v>147</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3998,63 +4076,57 @@
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="E65">
-        <v>117</v>
-      </c>
-      <c r="F65" t="s">
-        <v>447</v>
+        <v>325</v>
       </c>
       <c r="G65" t="s">
-        <v>216</v>
-      </c>
-      <c r="H65" t="s">
-        <v>217</v>
+        <v>416</v>
       </c>
       <c r="I65" t="s">
-        <v>218</v>
+        <v>530</v>
       </c>
       <c r="J65">
-        <v>164</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C66">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="E66">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F66" t="s">
-        <v>448</v>
+        <v>314</v>
       </c>
       <c r="G66" t="s">
-        <v>219</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="I66" t="s">
-        <v>221</v>
+        <v>531</v>
       </c>
       <c r="J66">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4062,31 +4134,31 @@
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C67">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="E67">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F67" t="s">
-        <v>419</v>
+        <v>315</v>
       </c>
       <c r="G67" t="s">
+        <v>88</v>
+      </c>
+      <c r="H67" t="s">
+        <v>89</v>
+      </c>
+      <c r="I67" t="s">
+        <v>474</v>
+      </c>
+      <c r="J67">
         <v>154</v>
-      </c>
-      <c r="H67" t="s">
-        <v>155</v>
-      </c>
-      <c r="I67" t="s">
-        <v>156</v>
-      </c>
-      <c r="J67">
-        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4094,31 +4166,31 @@
         <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C68">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68">
+        <v>252</v>
+      </c>
+      <c r="F68" t="s">
+        <v>316</v>
+      </c>
+      <c r="G68" t="s">
+        <v>90</v>
+      </c>
+      <c r="H68" t="s">
+        <v>91</v>
+      </c>
+      <c r="I68" t="s">
+        <v>475</v>
+      </c>
+      <c r="J68">
         <v>150</v>
-      </c>
-      <c r="E68">
-        <v>124</v>
-      </c>
-      <c r="F68" t="s">
-        <v>420</v>
-      </c>
-      <c r="G68" t="s">
-        <v>157</v>
-      </c>
-      <c r="H68" t="s">
-        <v>158</v>
-      </c>
-      <c r="I68" t="s">
-        <v>159</v>
-      </c>
-      <c r="J68">
-        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4126,31 +4198,31 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C69">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="E69">
-        <v>125</v>
+        <v>254</v>
       </c>
       <c r="F69" t="s">
-        <v>422</v>
+        <v>317</v>
       </c>
       <c r="G69" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="H69" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="I69" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="J69">
-        <v>15</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4158,31 +4230,31 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C70">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="E70">
-        <v>126</v>
+        <v>280</v>
       </c>
       <c r="F70" t="s">
-        <v>423</v>
+        <v>318</v>
       </c>
       <c r="G70" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="H70" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="I70" t="s">
-        <v>165</v>
+        <v>476</v>
       </c>
       <c r="J70">
-        <v>11</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4190,63 +4262,63 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C71">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="E71">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="F71" t="s">
-        <v>430</v>
+        <v>319</v>
       </c>
       <c r="G71" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="H71" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="I71" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="J71">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C72">
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E72">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="F72" t="s">
-        <v>414</v>
+        <v>320</v>
       </c>
       <c r="G72" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="H72" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="I72" t="s">
-        <v>140</v>
+        <v>532</v>
       </c>
       <c r="J72">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4254,31 +4326,31 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C73">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>268</v>
+        <v>97</v>
       </c>
       <c r="E73">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="F73" t="s">
-        <v>470</v>
+        <v>321</v>
       </c>
       <c r="G73" t="s">
-        <v>277</v>
+        <v>101</v>
       </c>
       <c r="H73" t="s">
-        <v>278</v>
+        <v>102</v>
       </c>
       <c r="I73" t="s">
-        <v>279</v>
+        <v>532</v>
       </c>
       <c r="J73">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4286,31 +4358,31 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="E74">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F74" t="s">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="I74" t="s">
-        <v>48</v>
+        <v>477</v>
       </c>
       <c r="J74">
-        <v>53</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4318,31 +4390,31 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C75">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="E75">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="F75" t="s">
-        <v>425</v>
+        <v>323</v>
       </c>
       <c r="G75" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="H75" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="I75" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4350,31 +4422,31 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>314</v>
+        <v>97</v>
       </c>
       <c r="E76">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="F76" t="s">
-        <v>490</v>
+        <v>324</v>
       </c>
       <c r="G76" t="s">
-        <v>330</v>
+        <v>108</v>
       </c>
       <c r="H76" t="s">
-        <v>331</v>
+        <v>109</v>
       </c>
       <c r="I76" t="s">
-        <v>332</v>
+        <v>478</v>
       </c>
       <c r="J76">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4382,31 +4454,31 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>268</v>
+        <v>97</v>
       </c>
       <c r="E77">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="F77" t="s">
-        <v>471</v>
+        <v>325</v>
       </c>
       <c r="G77" t="s">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="H77" t="s">
-        <v>281</v>
+        <v>111</v>
       </c>
       <c r="I77" t="s">
-        <v>282</v>
+        <v>112</v>
       </c>
       <c r="J77">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4414,31 +4486,31 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C78">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E78">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="F78" t="s">
-        <v>415</v>
+        <v>326</v>
       </c>
       <c r="G78" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="H78" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="I78" t="s">
-        <v>143</v>
+        <v>562</v>
       </c>
       <c r="J78">
-        <v>113</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4446,31 +4518,31 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="E79">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="F79" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G79" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="H79" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="I79" t="s">
-        <v>54</v>
+        <v>533</v>
       </c>
       <c r="J79">
-        <v>128</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4478,63 +4550,63 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C80">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="E80">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="F80" t="s">
-        <v>437</v>
+        <v>328</v>
       </c>
       <c r="G80" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="H80" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="I80" t="s">
-        <v>197</v>
+        <v>534</v>
       </c>
       <c r="J80">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C81">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="E81">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="F81" t="s">
-        <v>438</v>
+        <v>329</v>
       </c>
       <c r="G81" t="s">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="H81" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="I81" t="s">
-        <v>200</v>
+        <v>535</v>
       </c>
       <c r="J81">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4542,31 +4614,31 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C82">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>268</v>
+        <v>113</v>
       </c>
       <c r="E82">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="F82" t="s">
-        <v>472</v>
+        <v>330</v>
       </c>
       <c r="G82" t="s">
-        <v>283</v>
+        <v>120</v>
       </c>
       <c r="H82" t="s">
-        <v>284</v>
+        <v>121</v>
       </c>
       <c r="I82" t="s">
-        <v>285</v>
+        <v>535</v>
       </c>
       <c r="J82">
-        <v>140</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4574,63 +4646,63 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C83">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>268</v>
+        <v>113</v>
       </c>
       <c r="E83">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="F83" t="s">
-        <v>473</v>
+        <v>331</v>
       </c>
       <c r="G83" t="s">
-        <v>286</v>
+        <v>122</v>
       </c>
       <c r="H83" t="s">
-        <v>287</v>
+        <v>123</v>
       </c>
       <c r="I83" t="s">
-        <v>288</v>
+        <v>124</v>
       </c>
       <c r="J83">
-        <v>97</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C84">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="E84">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="F84" t="s">
-        <v>439</v>
+        <v>332</v>
       </c>
       <c r="G84" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="H84" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="I84" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="J84">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4638,31 +4710,31 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C85">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="E85">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="F85" t="s">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="G85" t="s">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="H85" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="I85" t="s">
-        <v>224</v>
+        <v>536</v>
       </c>
       <c r="J85">
-        <v>158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4670,31 +4742,31 @@
         <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C86">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="E86">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="F86" t="s">
-        <v>451</v>
+        <v>334</v>
       </c>
       <c r="G86" t="s">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="H86" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="I86" t="s">
-        <v>227</v>
+        <v>537</v>
       </c>
       <c r="J86">
-        <v>167</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4702,31 +4774,31 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C87">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E87">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="F87" t="s">
-        <v>416</v>
+        <v>335</v>
       </c>
       <c r="G87" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="H87" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="I87" t="s">
-        <v>146</v>
+        <v>538</v>
       </c>
       <c r="J87">
-        <v>116</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4734,63 +4806,63 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C88">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>252</v>
+        <v>131</v>
       </c>
       <c r="E88">
-        <v>219</v>
+        <v>115</v>
       </c>
       <c r="F88" t="s">
-        <v>462</v>
+        <v>336</v>
       </c>
       <c r="G88" t="s">
-        <v>253</v>
+        <v>132</v>
       </c>
       <c r="H88" t="s">
-        <v>254</v>
+        <v>133</v>
       </c>
       <c r="I88" t="s">
-        <v>255</v>
+        <v>479</v>
       </c>
       <c r="J88">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C89">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="E89">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="F89" t="s">
-        <v>454</v>
+        <v>337</v>
       </c>
       <c r="G89" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="H89" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="I89" t="s">
-        <v>233</v>
+        <v>482</v>
       </c>
       <c r="J89">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4798,31 +4870,31 @@
         <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C90">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>314</v>
+        <v>131</v>
       </c>
       <c r="E90">
-        <v>234</v>
+        <v>130</v>
       </c>
       <c r="F90" t="s">
-        <v>491</v>
+        <v>338</v>
       </c>
       <c r="G90" t="s">
-        <v>333</v>
+        <v>134</v>
       </c>
       <c r="H90" t="s">
-        <v>334</v>
+        <v>135</v>
       </c>
       <c r="I90" t="s">
-        <v>335</v>
+        <v>482</v>
       </c>
       <c r="J90">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4830,31 +4902,31 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="E91">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F91" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="G91" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="H91" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="I91" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="J91">
-        <v>103</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4862,31 +4934,31 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C92">
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="E92">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F92" t="s">
-        <v>431</v>
+        <v>340</v>
       </c>
       <c r="G92" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="H92" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="I92" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="J92">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4894,31 +4966,31 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E93">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F93" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="G93" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="H93" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="I93" t="s">
-        <v>98</v>
+        <v>480</v>
       </c>
       <c r="J93">
-        <v>40</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4926,63 +4998,54 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="E94">
-        <v>243</v>
-      </c>
-      <c r="F94" t="s">
-        <v>389</v>
+        <v>320</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="G94" t="s">
-        <v>71</v>
-      </c>
-      <c r="H94" t="s">
-        <v>72</v>
+        <v>274</v>
       </c>
       <c r="I94" t="s">
-        <v>73</v>
+        <v>481</v>
       </c>
       <c r="J94">
-        <v>103</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C95">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D95" t="s">
-        <v>314</v>
+        <v>412</v>
       </c>
       <c r="E95">
-        <v>246</v>
-      </c>
-      <c r="F95" t="s">
-        <v>492</v>
+        <v>326</v>
       </c>
       <c r="G95" t="s">
-        <v>336</v>
-      </c>
-      <c r="H95" t="s">
-        <v>337</v>
+        <v>417</v>
       </c>
       <c r="I95" t="s">
-        <v>338</v>
+        <v>547</v>
       </c>
       <c r="J95">
-        <v>99</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4990,95 +5053,77 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C96">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>175</v>
+        <v>412</v>
       </c>
       <c r="E96">
-        <v>248</v>
-      </c>
-      <c r="F96" t="s">
-        <v>432</v>
+        <v>326</v>
       </c>
       <c r="G96" t="s">
-        <v>185</v>
-      </c>
-      <c r="H96" t="s">
-        <v>186</v>
+        <v>417</v>
       </c>
       <c r="I96" t="s">
-        <v>187</v>
+        <v>547</v>
       </c>
       <c r="J96">
-        <v>145</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C97">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D97" t="s">
-        <v>112</v>
+        <v>412</v>
       </c>
       <c r="E97">
-        <v>252</v>
-      </c>
-      <c r="F97" t="s">
-        <v>408</v>
+        <v>321</v>
       </c>
       <c r="G97" t="s">
-        <v>122</v>
-      </c>
-      <c r="H97" t="s">
-        <v>123</v>
+        <v>413</v>
       </c>
       <c r="I97" t="s">
-        <v>124</v>
+        <v>548</v>
       </c>
       <c r="J97">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C98">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>412</v>
       </c>
       <c r="E98">
-        <v>257</v>
-      </c>
-      <c r="F98" t="s">
-        <v>417</v>
+        <v>321</v>
       </c>
       <c r="G98" t="s">
-        <v>147</v>
-      </c>
-      <c r="H98" t="s">
-        <v>148</v>
+        <v>413</v>
       </c>
       <c r="I98" t="s">
-        <v>149</v>
+        <v>549</v>
       </c>
       <c r="J98">
-        <v>113</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5086,31 +5131,25 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C99">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>268</v>
+        <v>412</v>
       </c>
       <c r="E99">
-        <v>263</v>
-      </c>
-      <c r="F99" t="s">
-        <v>474</v>
+        <v>321</v>
       </c>
       <c r="G99" t="s">
-        <v>289</v>
-      </c>
-      <c r="H99" t="s">
-        <v>290</v>
+        <v>413</v>
       </c>
       <c r="I99" t="s">
-        <v>291</v>
+        <v>548</v>
       </c>
       <c r="J99">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5118,63 +5157,63 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C100">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>268</v>
+        <v>144</v>
       </c>
       <c r="E100">
-        <v>269</v>
+        <v>52</v>
       </c>
       <c r="F100" t="s">
-        <v>477</v>
+        <v>343</v>
       </c>
       <c r="G100" t="s">
-        <v>295</v>
+        <v>145</v>
       </c>
       <c r="H100" t="s">
-        <v>296</v>
+        <v>146</v>
       </c>
       <c r="I100" t="s">
-        <v>297</v>
+        <v>147</v>
       </c>
       <c r="J100">
-        <v>96</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>268</v>
+        <v>144</v>
       </c>
       <c r="E101">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="F101" t="s">
-        <v>479</v>
+        <v>344</v>
       </c>
       <c r="G101" t="s">
-        <v>298</v>
+        <v>148</v>
       </c>
       <c r="H101" t="s">
-        <v>299</v>
+        <v>149</v>
       </c>
       <c r="I101" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="J101">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5182,31 +5221,31 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C102">
         <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="E102">
-        <v>274</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>441</v>
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
+        <v>345</v>
       </c>
       <c r="G102" t="s">
-        <v>204</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>360</v>
+        <v>148</v>
+      </c>
+      <c r="H102" t="s">
+        <v>149</v>
+      </c>
+      <c r="I102" t="s">
+        <v>497</v>
       </c>
       <c r="J102">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5214,31 +5253,31 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="E103">
-        <v>277</v>
+        <v>202</v>
       </c>
       <c r="F103" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="H103" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="I103" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="J103">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5246,31 +5285,31 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="E104">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="F104" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
       <c r="G104" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="H104" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="I104" t="s">
-        <v>101</v>
+        <v>498</v>
       </c>
       <c r="J104">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5278,63 +5317,57 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C105">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="E105">
-        <v>279</v>
-      </c>
-      <c r="F105" t="s">
-        <v>455</v>
+        <v>398</v>
       </c>
       <c r="G105" t="s">
-        <v>234</v>
+        <v>445</v>
       </c>
       <c r="H105" t="s">
-        <v>235</v>
+        <v>447</v>
       </c>
       <c r="I105" t="s">
-        <v>236</v>
+        <v>499</v>
       </c>
       <c r="J105">
-        <v>158</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>423</v>
       </c>
       <c r="C106">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="E106">
-        <v>280</v>
-      </c>
-      <c r="F106" t="s">
-        <v>456</v>
+        <v>397</v>
       </c>
       <c r="G106" t="s">
-        <v>237</v>
+        <v>445</v>
       </c>
       <c r="H106" t="s">
-        <v>238</v>
+        <v>447</v>
       </c>
       <c r="I106" t="s">
-        <v>239</v>
+        <v>499</v>
       </c>
       <c r="J106">
-        <v>164</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5342,63 +5375,57 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C107">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>268</v>
+        <v>144</v>
       </c>
       <c r="E107">
-        <v>281</v>
-      </c>
-      <c r="F107" t="s">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="G107" t="s">
-        <v>300</v>
+        <v>425</v>
       </c>
       <c r="H107" t="s">
-        <v>301</v>
+        <v>448</v>
       </c>
       <c r="I107" t="s">
-        <v>302</v>
+        <v>500</v>
       </c>
       <c r="J107">
-        <v>144</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>423</v>
       </c>
       <c r="C108">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>314</v>
+        <v>144</v>
       </c>
       <c r="E108">
-        <v>294</v>
-      </c>
-      <c r="F108" t="s">
-        <v>493</v>
+        <v>399</v>
       </c>
       <c r="G108" t="s">
-        <v>339</v>
+        <v>425</v>
       </c>
       <c r="H108" t="s">
-        <v>340</v>
+        <v>448</v>
       </c>
       <c r="I108" t="s">
-        <v>341</v>
+        <v>500</v>
       </c>
       <c r="J108">
-        <v>106</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5406,63 +5433,63 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C109">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>268</v>
+        <v>144</v>
       </c>
       <c r="E109">
-        <v>296</v>
-      </c>
-      <c r="F109" t="s">
-        <v>481</v>
+        <v>274</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="G109" t="s">
-        <v>303</v>
-      </c>
-      <c r="H109" t="s">
-        <v>510</v>
-      </c>
-      <c r="I109" t="s">
-        <v>304</v>
+        <v>155</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="J109">
-        <v>98</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>423</v>
       </c>
       <c r="C110">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>252</v>
+        <v>144</v>
       </c>
       <c r="E110">
-        <v>298</v>
-      </c>
-      <c r="F110" t="s">
-        <v>464</v>
+        <v>274</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="G110" t="s">
-        <v>259</v>
-      </c>
-      <c r="H110" t="s">
-        <v>260</v>
-      </c>
-      <c r="I110" t="s">
-        <v>261</v>
+        <v>155</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="J110">
-        <v>122</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5470,31 +5497,31 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="E111">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F111" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="G111" t="s">
-        <v>55</v>
-      </c>
-      <c r="H111" t="s">
-        <v>56</v>
+        <v>156</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="I111" t="s">
-        <v>57</v>
+        <v>502</v>
       </c>
       <c r="J111">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5502,31 +5529,31 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C112">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="E112">
-        <v>236</v>
-      </c>
-      <c r="F112" t="s">
-        <v>433</v>
+        <v>261</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="G112" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="H112" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="I112" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="J112">
-        <v>147</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5534,63 +5561,57 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C113">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>314</v>
+        <v>144</v>
       </c>
       <c r="E113">
-        <v>238</v>
-      </c>
-      <c r="F113" t="s">
-        <v>495</v>
+        <v>396</v>
       </c>
       <c r="G113" t="s">
-        <v>342</v>
+        <v>444</v>
       </c>
       <c r="H113" t="s">
-        <v>343</v>
+        <v>446</v>
       </c>
       <c r="I113" t="s">
-        <v>344</v>
+        <v>433</v>
       </c>
       <c r="J113">
-        <v>110</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>423</v>
       </c>
       <c r="C114">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>314</v>
+        <v>144</v>
       </c>
       <c r="E114">
-        <v>239</v>
-      </c>
-      <c r="F114" t="s">
-        <v>497</v>
+        <v>395</v>
       </c>
       <c r="G114" t="s">
-        <v>345</v>
+        <v>444</v>
       </c>
       <c r="H114" t="s">
-        <v>346</v>
+        <v>446</v>
       </c>
       <c r="I114" t="s">
-        <v>347</v>
+        <v>433</v>
       </c>
       <c r="J114">
-        <v>139</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5598,31 +5619,31 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C115">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="E115">
-        <v>243</v>
+        <v>48</v>
       </c>
       <c r="F115" t="s">
-        <v>442</v>
+        <v>352</v>
       </c>
       <c r="G115" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>365</v>
+        <v>272</v>
       </c>
       <c r="I115" t="s">
-        <v>206</v>
+        <v>563</v>
       </c>
       <c r="J115">
-        <v>52</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5630,31 +5651,31 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C116">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>314</v>
+        <v>158</v>
       </c>
       <c r="E116">
-        <v>247</v>
+        <v>54</v>
       </c>
       <c r="F116" t="s">
-        <v>498</v>
+        <v>353</v>
       </c>
       <c r="G116" t="s">
-        <v>348</v>
-      </c>
-      <c r="H116" t="s">
-        <v>349</v>
+        <v>160</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="I116" t="s">
-        <v>350</v>
+        <v>521</v>
       </c>
       <c r="J116">
-        <v>107</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5662,28 +5683,28 @@
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C117">
         <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="E117">
-        <v>253</v>
+        <v>61</v>
       </c>
       <c r="F117" t="s">
-        <v>457</v>
+        <v>354</v>
       </c>
       <c r="G117" t="s">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="H117" t="s">
-        <v>241</v>
+        <v>162</v>
       </c>
       <c r="I117" t="s">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c r="J117">
         <v>167</v>
@@ -5694,31 +5715,31 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C118">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="E118">
-        <v>254</v>
+        <v>117</v>
       </c>
       <c r="F118" t="s">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="G118" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="H118" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="I118" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="J118">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5726,63 +5747,63 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C119">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="E119">
-        <v>261</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>443</v>
+        <v>120</v>
+      </c>
+      <c r="F119" t="s">
+        <v>356</v>
       </c>
       <c r="G119" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="H119" t="s">
-        <v>362</v>
+        <v>168</v>
       </c>
       <c r="I119" t="s">
-        <v>361</v>
+        <v>522</v>
       </c>
       <c r="J119">
-        <v>19</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C120">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>314</v>
+        <v>158</v>
       </c>
       <c r="E120">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="F120" t="s">
-        <v>499</v>
+        <v>357</v>
       </c>
       <c r="G120" t="s">
-        <v>351</v>
+        <v>169</v>
       </c>
       <c r="H120" t="s">
-        <v>352</v>
+        <v>170</v>
       </c>
       <c r="I120" t="s">
-        <v>353</v>
+        <v>523</v>
       </c>
       <c r="J120">
-        <v>108</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5790,31 +5811,31 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="E121">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="F121" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="G121" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="H121" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="I121" t="s">
-        <v>76</v>
+        <v>523</v>
       </c>
       <c r="J121">
-        <v>103</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5822,95 +5843,95 @@
         <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C122">
         <v>11</v>
       </c>
       <c r="D122" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="E122">
-        <v>267</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>458</v>
+        <v>359</v>
       </c>
       <c r="G122" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="H122" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="I122" t="s">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="J122">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C123">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D123" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="E123">
-        <v>270</v>
+        <v>211</v>
       </c>
       <c r="F123" t="s">
-        <v>465</v>
+        <v>360</v>
       </c>
       <c r="G123" t="s">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="H123" t="s">
-        <v>263</v>
+        <v>172</v>
       </c>
       <c r="I123" t="s">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="J123">
-        <v>122</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D124" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="E124">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="F124" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="G124" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="H124" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="I124" t="s">
-        <v>104</v>
+        <v>524</v>
       </c>
       <c r="J124">
-        <v>36</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5918,31 +5939,31 @@
         <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C125">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D125" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="E125">
-        <v>319</v>
+        <v>230</v>
       </c>
       <c r="F125" t="s">
-        <v>466</v>
+        <v>362</v>
       </c>
       <c r="G125" t="s">
-        <v>265</v>
+        <v>176</v>
       </c>
       <c r="H125" t="s">
-        <v>266</v>
+        <v>177</v>
       </c>
       <c r="I125" t="s">
-        <v>267</v>
+        <v>178</v>
       </c>
       <c r="J125">
-        <v>122</v>
+        <v>155</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5950,22 +5971,31 @@
         <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C126">
+        <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>512</v>
+        <v>158</v>
       </c>
       <c r="E126">
-        <v>322</v>
+        <v>279</v>
+      </c>
+      <c r="F126" t="s">
+        <v>363</v>
       </c>
       <c r="G126" t="s">
-        <v>521</v>
+        <v>179</v>
+      </c>
+      <c r="H126" t="s">
+        <v>180</v>
       </c>
       <c r="I126" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="J126">
-        <v>241</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5973,22 +6003,31 @@
         <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C127">
+        <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>512</v>
+        <v>158</v>
       </c>
       <c r="E127">
-        <v>323</v>
+        <v>280</v>
+      </c>
+      <c r="F127" t="s">
+        <v>364</v>
       </c>
       <c r="G127" t="s">
-        <v>522</v>
+        <v>181</v>
+      </c>
+      <c r="H127" t="s">
+        <v>182</v>
       </c>
       <c r="I127" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="J127">
-        <v>241</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5996,31 +6035,31 @@
         <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C128">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D128" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="E128">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="F128" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="G128" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="H128" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="I128" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="J128">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6028,31 +6067,31 @@
         <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="E129">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="F129" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="H129" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="I129" t="s">
-        <v>38</v>
+        <v>527</v>
       </c>
       <c r="J129">
-        <v>79</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6060,63 +6099,63 @@
         <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C130">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D130" t="s">
-        <v>505</v>
+        <v>158</v>
       </c>
       <c r="E130">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="F130" t="s">
-        <v>501</v>
+        <v>367</v>
       </c>
       <c r="G130" t="s">
-        <v>354</v>
+        <v>188</v>
       </c>
       <c r="H130" t="s">
-        <v>355</v>
+        <v>189</v>
       </c>
       <c r="I130" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="J130">
-        <v>138</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C131">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="E131">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="F131" t="s">
-        <v>482</v>
+        <v>368</v>
       </c>
       <c r="G131" t="s">
-        <v>305</v>
+        <v>191</v>
       </c>
       <c r="H131" t="s">
-        <v>306</v>
+        <v>192</v>
       </c>
       <c r="I131" t="s">
-        <v>307</v>
+        <v>541</v>
       </c>
       <c r="J131">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6124,57 +6163,63 @@
         <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C132">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>356</v>
+        <v>190</v>
       </c>
       <c r="E132">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="F132" t="s">
-        <v>503</v>
+        <v>369</v>
       </c>
       <c r="G132" t="s">
-        <v>357</v>
+        <v>191</v>
       </c>
       <c r="H132" t="s">
-        <v>358</v>
+        <v>192</v>
       </c>
       <c r="I132" t="s">
-        <v>359</v>
+        <v>541</v>
       </c>
       <c r="J132">
-        <v>83</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>423</v>
       </c>
       <c r="C133">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>356</v>
+        <v>190</v>
       </c>
       <c r="E133">
-        <v>324</v>
+        <v>220</v>
+      </c>
+      <c r="F133" t="s">
+        <v>370</v>
       </c>
       <c r="G133" t="s">
-        <v>515</v>
+        <v>193</v>
+      </c>
+      <c r="H133" t="s">
+        <v>194</v>
       </c>
       <c r="I133" t="s">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="J133">
-        <v>83</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6182,31 +6227,31 @@
         <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C134">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D134" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="E134">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F134" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="G134" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="H134" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="I134" t="s">
-        <v>171</v>
+        <v>543</v>
       </c>
       <c r="J134">
-        <v>10</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6214,31 +6259,31 @@
         <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C135">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="E135">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="F135" t="s">
-        <v>459</v>
+        <v>372</v>
       </c>
       <c r="G135" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="H135" t="s">
-        <v>248</v>
+        <v>198</v>
       </c>
       <c r="I135" t="s">
-        <v>247</v>
+        <v>544</v>
       </c>
       <c r="J135">
-        <v>164</v>
+        <v>122</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6246,31 +6291,31 @@
         <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C136">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="E136">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="F136" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="G136" t="s">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="H136" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="I136" t="s">
-        <v>107</v>
+        <v>545</v>
       </c>
       <c r="J136">
-        <v>39</v>
+        <v>122</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6278,31 +6323,31 @@
         <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C137">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D137" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E137">
-        <v>306</v>
+        <v>63</v>
       </c>
       <c r="F137" t="s">
-        <v>460</v>
+        <v>374</v>
       </c>
       <c r="G137" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="H137" t="s">
-        <v>250</v>
+        <v>546</v>
       </c>
       <c r="I137" t="s">
-        <v>251</v>
+        <v>484</v>
       </c>
       <c r="J137">
-        <v>160</v>
+        <v>85</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6310,31 +6355,31 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C138">
         <v>13</v>
       </c>
       <c r="D138" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="E138">
-        <v>306</v>
+        <v>75</v>
       </c>
       <c r="F138" t="s">
-        <v>483</v>
+        <v>375</v>
       </c>
       <c r="G138" t="s">
-        <v>308</v>
+        <v>203</v>
       </c>
       <c r="H138" t="s">
-        <v>309</v>
+        <v>204</v>
       </c>
       <c r="I138" t="s">
-        <v>310</v>
+        <v>485</v>
       </c>
       <c r="J138">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6342,28 +6387,31 @@
         <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C139">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D139" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="E139">
-        <v>320</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>434</v>
+        <v>94</v>
+      </c>
+      <c r="F139" t="s">
+        <v>376</v>
       </c>
       <c r="G139" t="s">
-        <v>366</v>
+        <v>205</v>
+      </c>
+      <c r="H139" t="s">
+        <v>206</v>
       </c>
       <c r="I139" t="s">
-        <v>367</v>
+        <v>486</v>
       </c>
       <c r="J139">
-        <v>147</v>
+        <v>96</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6371,31 +6419,31 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C140">
         <v>13</v>
       </c>
       <c r="D140" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="E140">
-        <v>314</v>
+        <v>143</v>
       </c>
       <c r="F140" t="s">
-        <v>484</v>
+        <v>377</v>
       </c>
       <c r="G140" t="s">
-        <v>311</v>
+        <v>207</v>
       </c>
       <c r="H140" t="s">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="I140" t="s">
-        <v>313</v>
+        <v>487</v>
       </c>
       <c r="J140">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6403,302 +6451,1173 @@
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C141">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D141" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="E141">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="F141" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
       <c r="G141" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="H141" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="I141" t="s">
-        <v>174</v>
+        <v>488</v>
       </c>
       <c r="J141">
-        <v>2</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D142" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="E142">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="F142" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G142" t="s">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="H142" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="I142" t="s">
-        <v>19</v>
+        <v>489</v>
       </c>
       <c r="J142">
-        <v>64</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C143">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D143" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="E143">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="F143" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="G143" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="H143" t="s">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="I143" t="s">
-        <v>83</v>
+        <v>490</v>
       </c>
       <c r="J143">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B144" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C144">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D144" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="E144">
-        <v>126</v>
+        <v>263</v>
       </c>
       <c r="F144" t="s">
-        <v>424</v>
+        <v>381</v>
       </c>
       <c r="G144" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="H144" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="I144" t="s">
-        <v>165</v>
+        <v>491</v>
       </c>
       <c r="J144">
-        <v>11</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B145" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C145">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D145" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E145">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="F145" t="s">
-        <v>452</v>
+        <v>382</v>
       </c>
       <c r="G145" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H145" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="I145" t="s">
-        <v>523</v>
+        <v>219</v>
       </c>
       <c r="J145">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B146" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C146">
         <v>13</v>
       </c>
       <c r="D146" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="E146">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F146" t="s">
-        <v>478</v>
+        <v>383</v>
       </c>
       <c r="G146" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="H146" t="s">
-        <v>299</v>
+        <v>221</v>
       </c>
       <c r="I146" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="J146">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147">
+        <v>10</v>
+      </c>
+      <c r="B147" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147">
+        <v>13</v>
+      </c>
+      <c r="D147" t="s">
+        <v>201</v>
+      </c>
+      <c r="E147">
+        <v>269</v>
+      </c>
+      <c r="F147" t="s">
+        <v>384</v>
+      </c>
+      <c r="G147" t="s">
+        <v>220</v>
+      </c>
+      <c r="H147" t="s">
+        <v>221</v>
+      </c>
+      <c r="I147" t="s">
+        <v>492</v>
+      </c>
+      <c r="J147">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>10</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148">
+        <v>13</v>
+      </c>
+      <c r="D148" t="s">
+        <v>201</v>
+      </c>
+      <c r="E148">
+        <v>270</v>
+      </c>
+      <c r="F148" t="s">
+        <v>386</v>
+      </c>
+      <c r="G148" t="s">
+        <v>222</v>
+      </c>
+      <c r="H148" t="s">
+        <v>223</v>
+      </c>
+      <c r="I148" t="s">
+        <v>411</v>
+      </c>
+      <c r="J148">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149">
         <v>11</v>
       </c>
-      <c r="B147" t="s">
-        <v>20</v>
-      </c>
-      <c r="C147">
+      <c r="B149" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149">
+        <v>13</v>
+      </c>
+      <c r="D149" t="s">
+        <v>201</v>
+      </c>
+      <c r="E149">
+        <v>264</v>
+      </c>
+      <c r="F149" t="s">
+        <v>385</v>
+      </c>
+      <c r="G149" t="s">
+        <v>222</v>
+      </c>
+      <c r="H149" t="s">
+        <v>223</v>
+      </c>
+      <c r="I149" t="s">
+        <v>411</v>
+      </c>
+      <c r="J149">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>10</v>
+      </c>
+      <c r="B150" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150">
+        <v>13</v>
+      </c>
+      <c r="D150" t="s">
+        <v>201</v>
+      </c>
+      <c r="E150">
+        <v>281</v>
+      </c>
+      <c r="F150" t="s">
+        <v>387</v>
+      </c>
+      <c r="G150" t="s">
+        <v>224</v>
+      </c>
+      <c r="H150" t="s">
+        <v>225</v>
+      </c>
+      <c r="I150" t="s">
+        <v>493</v>
+      </c>
+      <c r="J150">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>10</v>
+      </c>
+      <c r="B151" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151">
+        <v>13</v>
+      </c>
+      <c r="D151" t="s">
+        <v>201</v>
+      </c>
+      <c r="E151">
+        <v>296</v>
+      </c>
+      <c r="F151" t="s">
+        <v>388</v>
+      </c>
+      <c r="G151" t="s">
+        <v>226</v>
+      </c>
+      <c r="H151" t="s">
+        <v>414</v>
+      </c>
+      <c r="I151" t="s">
+        <v>227</v>
+      </c>
+      <c r="J151">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>10</v>
+      </c>
+      <c r="B152" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152">
+        <v>13</v>
+      </c>
+      <c r="D152" t="s">
+        <v>201</v>
+      </c>
+      <c r="E152">
+        <v>297</v>
+      </c>
+      <c r="F152" t="s">
+        <v>389</v>
+      </c>
+      <c r="G152" t="s">
+        <v>228</v>
+      </c>
+      <c r="H152" t="s">
+        <v>229</v>
+      </c>
+      <c r="I152" t="s">
+        <v>494</v>
+      </c>
+      <c r="J152">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>10</v>
+      </c>
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153">
+        <v>13</v>
+      </c>
+      <c r="D153" t="s">
+        <v>201</v>
+      </c>
+      <c r="E153">
+        <v>306</v>
+      </c>
+      <c r="F153" t="s">
+        <v>390</v>
+      </c>
+      <c r="G153" t="s">
+        <v>230</v>
+      </c>
+      <c r="H153" t="s">
+        <v>231</v>
+      </c>
+      <c r="I153" t="s">
+        <v>495</v>
+      </c>
+      <c r="J153">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>10</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154">
+        <v>13</v>
+      </c>
+      <c r="D154" t="s">
+        <v>201</v>
+      </c>
+      <c r="E154">
+        <v>314</v>
+      </c>
+      <c r="F154" t="s">
+        <v>391</v>
+      </c>
+      <c r="G154" t="s">
+        <v>232</v>
+      </c>
+      <c r="H154" t="s">
+        <v>233</v>
+      </c>
+      <c r="I154" t="s">
+        <v>496</v>
+      </c>
+      <c r="J154">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>10</v>
+      </c>
+      <c r="B155" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155">
         <v>14</v>
       </c>
-      <c r="D147" t="s">
-        <v>314</v>
-      </c>
-      <c r="E147">
+      <c r="D155" t="s">
+        <v>234</v>
+      </c>
+      <c r="E155">
+        <v>29</v>
+      </c>
+      <c r="F155" t="s">
+        <v>392</v>
+      </c>
+      <c r="G155" t="s">
+        <v>235</v>
+      </c>
+      <c r="H155" t="s">
+        <v>236</v>
+      </c>
+      <c r="I155" t="s">
+        <v>512</v>
+      </c>
+      <c r="J155">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>10</v>
+      </c>
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156">
+        <v>14</v>
+      </c>
+      <c r="D156" t="s">
+        <v>234</v>
+      </c>
+      <c r="E156">
+        <v>49</v>
+      </c>
+      <c r="F156" t="s">
+        <v>393</v>
+      </c>
+      <c r="G156" t="s">
         <v>237</v>
       </c>
-      <c r="F147" t="s">
-        <v>496</v>
-      </c>
-      <c r="G147" t="s">
-        <v>345</v>
-      </c>
-      <c r="H147" t="s">
-        <v>346</v>
-      </c>
-      <c r="I147" t="s">
-        <v>347</v>
-      </c>
-      <c r="J147">
+      <c r="H156" t="s">
+        <v>238</v>
+      </c>
+      <c r="I156" t="s">
+        <v>564</v>
+      </c>
+      <c r="J156">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>10</v>
+      </c>
+      <c r="B157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157">
+        <v>14</v>
+      </c>
+      <c r="D157" t="s">
+        <v>234</v>
+      </c>
+      <c r="E157">
+        <v>65</v>
+      </c>
+      <c r="F157" t="s">
+        <v>394</v>
+      </c>
+      <c r="G157" t="s">
+        <v>239</v>
+      </c>
+      <c r="H157" t="s">
+        <v>240</v>
+      </c>
+      <c r="I157" t="s">
+        <v>241</v>
+      </c>
+      <c r="J157">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>10</v>
+      </c>
+      <c r="B158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158">
+        <v>14</v>
+      </c>
+      <c r="D158" t="s">
+        <v>234</v>
+      </c>
+      <c r="E158">
+        <v>89</v>
+      </c>
+      <c r="F158" t="s">
+        <v>395</v>
+      </c>
+      <c r="G158" t="s">
+        <v>242</v>
+      </c>
+      <c r="H158" t="s">
+        <v>243</v>
+      </c>
+      <c r="I158" t="s">
+        <v>513</v>
+      </c>
+      <c r="J158">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>10</v>
+      </c>
+      <c r="B159" t="s">
+        <v>15</v>
+      </c>
+      <c r="C159">
+        <v>14</v>
+      </c>
+      <c r="D159" t="s">
+        <v>234</v>
+      </c>
+      <c r="E159">
+        <v>106</v>
+      </c>
+      <c r="F159" t="s">
+        <v>396</v>
+      </c>
+      <c r="G159" t="s">
+        <v>244</v>
+      </c>
+      <c r="H159" t="s">
+        <v>245</v>
+      </c>
+      <c r="I159" t="s">
+        <v>514</v>
+      </c>
+      <c r="J159">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>10</v>
+      </c>
+      <c r="B160" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160">
+        <v>14</v>
+      </c>
+      <c r="D160" t="s">
+        <v>234</v>
+      </c>
+      <c r="E160">
+        <v>173</v>
+      </c>
+      <c r="F160" t="s">
+        <v>397</v>
+      </c>
+      <c r="G160" t="s">
+        <v>246</v>
+      </c>
+      <c r="H160" t="s">
+        <v>247</v>
+      </c>
+      <c r="I160" t="s">
+        <v>515</v>
+      </c>
+      <c r="J160">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>10</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161">
+        <v>14</v>
+      </c>
+      <c r="D161" t="s">
+        <v>234</v>
+      </c>
+      <c r="E161">
+        <v>234</v>
+      </c>
+      <c r="F161" t="s">
+        <v>398</v>
+      </c>
+      <c r="G161" t="s">
+        <v>248</v>
+      </c>
+      <c r="H161" t="s">
+        <v>249</v>
+      </c>
+      <c r="I161" t="s">
+        <v>250</v>
+      </c>
+      <c r="J161">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>10</v>
+      </c>
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162">
+        <v>14</v>
+      </c>
+      <c r="D162" t="s">
+        <v>234</v>
+      </c>
+      <c r="E162">
+        <v>246</v>
+      </c>
+      <c r="F162" t="s">
+        <v>399</v>
+      </c>
+      <c r="G162" t="s">
+        <v>251</v>
+      </c>
+      <c r="H162" t="s">
+        <v>252</v>
+      </c>
+      <c r="I162" t="s">
+        <v>516</v>
+      </c>
+      <c r="J162">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>10</v>
+      </c>
+      <c r="B163" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163">
+        <v>14</v>
+      </c>
+      <c r="D163" t="s">
+        <v>234</v>
+      </c>
+      <c r="E163">
+        <v>294</v>
+      </c>
+      <c r="F163" t="s">
+        <v>400</v>
+      </c>
+      <c r="G163" t="s">
+        <v>253</v>
+      </c>
+      <c r="H163" t="s">
+        <v>254</v>
+      </c>
+      <c r="I163" t="s">
+        <v>517</v>
+      </c>
+      <c r="J163">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>3</v>
+      </c>
+      <c r="B164" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164">
+        <v>14</v>
+      </c>
+      <c r="D164" t="s">
+        <v>234</v>
+      </c>
+      <c r="E164">
+        <v>238</v>
+      </c>
+      <c r="F164" t="s">
+        <v>401</v>
+      </c>
+      <c r="G164" t="s">
+        <v>255</v>
+      </c>
+      <c r="H164" t="s">
+        <v>256</v>
+      </c>
+      <c r="I164" t="s">
+        <v>518</v>
+      </c>
+      <c r="J164">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>10</v>
+      </c>
+      <c r="B165" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165">
+        <v>14</v>
+      </c>
+      <c r="D165" t="s">
+        <v>234</v>
+      </c>
+      <c r="E165">
+        <v>238</v>
+      </c>
+      <c r="F165" t="s">
+        <v>402</v>
+      </c>
+      <c r="G165" t="s">
+        <v>255</v>
+      </c>
+      <c r="H165" t="s">
+        <v>256</v>
+      </c>
+      <c r="I165" t="s">
+        <v>518</v>
+      </c>
+      <c r="J165">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>10</v>
+      </c>
+      <c r="B166" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166">
+        <v>14</v>
+      </c>
+      <c r="D166" t="s">
+        <v>234</v>
+      </c>
+      <c r="E166">
+        <v>239</v>
+      </c>
+      <c r="F166" t="s">
+        <v>404</v>
+      </c>
+      <c r="G166" t="s">
+        <v>257</v>
+      </c>
+      <c r="H166" t="s">
+        <v>258</v>
+      </c>
+      <c r="I166" t="s">
+        <v>566</v>
+      </c>
+      <c r="J166">
         <v>139</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>11</v>
+      </c>
+      <c r="B167" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167">
+        <v>14</v>
+      </c>
+      <c r="D167" t="s">
+        <v>234</v>
+      </c>
+      <c r="E167">
+        <v>237</v>
+      </c>
+      <c r="F167" t="s">
+        <v>403</v>
+      </c>
+      <c r="G167" t="s">
+        <v>257</v>
+      </c>
+      <c r="H167" t="s">
+        <v>258</v>
+      </c>
+      <c r="I167" t="s">
+        <v>566</v>
+      </c>
+      <c r="J167">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>10</v>
+      </c>
+      <c r="B168" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168">
+        <v>14</v>
+      </c>
+      <c r="D168" t="s">
+        <v>234</v>
+      </c>
+      <c r="E168">
+        <v>247</v>
+      </c>
+      <c r="F168" t="s">
+        <v>405</v>
+      </c>
+      <c r="G168" t="s">
+        <v>259</v>
+      </c>
+      <c r="H168" t="s">
+        <v>260</v>
+      </c>
+      <c r="I168" t="s">
+        <v>519</v>
+      </c>
+      <c r="J168">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>10</v>
+      </c>
+      <c r="B169" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169">
+        <v>14</v>
+      </c>
+      <c r="D169" t="s">
+        <v>234</v>
+      </c>
+      <c r="E169">
+        <v>262</v>
+      </c>
+      <c r="F169" t="s">
+        <v>406</v>
+      </c>
+      <c r="G169" t="s">
+        <v>261</v>
+      </c>
+      <c r="H169" t="s">
+        <v>262</v>
+      </c>
+      <c r="I169" t="s">
+        <v>520</v>
+      </c>
+      <c r="J169">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>3</v>
+      </c>
+      <c r="B170" t="s">
+        <v>10</v>
+      </c>
+      <c r="C170">
+        <v>15</v>
+      </c>
+      <c r="D170" t="s">
+        <v>449</v>
+      </c>
+      <c r="E170">
+        <v>293</v>
+      </c>
+      <c r="F170" t="s">
+        <v>407</v>
+      </c>
+      <c r="G170" t="s">
+        <v>263</v>
+      </c>
+      <c r="H170" t="s">
+        <v>264</v>
+      </c>
+      <c r="I170" t="s">
+        <v>550</v>
+      </c>
+      <c r="J170">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>10</v>
+      </c>
+      <c r="B171" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171">
+        <v>15</v>
+      </c>
+      <c r="D171" t="s">
+        <v>449</v>
+      </c>
+      <c r="E171">
+        <v>293</v>
+      </c>
+      <c r="F171" t="s">
+        <v>408</v>
+      </c>
+      <c r="G171" t="s">
+        <v>263</v>
+      </c>
+      <c r="H171" t="s">
+        <v>264</v>
+      </c>
+      <c r="I171" t="s">
+        <v>550</v>
+      </c>
+      <c r="J171">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>10</v>
+      </c>
+      <c r="B172" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172">
+        <v>16</v>
+      </c>
+      <c r="D172" t="s">
+        <v>265</v>
+      </c>
+      <c r="E172">
+        <v>324</v>
+      </c>
+      <c r="G172" t="s">
+        <v>553</v>
+      </c>
+      <c r="I172" t="s">
+        <v>552</v>
+      </c>
+      <c r="J172">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>3</v>
+      </c>
+      <c r="B173" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173">
+        <v>16</v>
+      </c>
+      <c r="D173" t="s">
+        <v>265</v>
+      </c>
+      <c r="E173">
+        <v>298</v>
+      </c>
+      <c r="F173" t="s">
+        <v>409</v>
+      </c>
+      <c r="G173" t="s">
+        <v>266</v>
+      </c>
+      <c r="H173" t="s">
+        <v>267</v>
+      </c>
+      <c r="I173" t="s">
+        <v>551</v>
+      </c>
+      <c r="J173">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>10</v>
+      </c>
+      <c r="B174" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174">
+        <v>16</v>
+      </c>
+      <c r="D174" t="s">
+        <v>265</v>
+      </c>
+      <c r="E174">
+        <v>298</v>
+      </c>
+      <c r="F174" t="s">
+        <v>410</v>
+      </c>
+      <c r="G174" t="s">
+        <v>266</v>
+      </c>
+      <c r="H174" t="s">
+        <v>267</v>
+      </c>
+      <c r="I174" t="s">
+        <v>268</v>
+      </c>
+      <c r="J174">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>10</v>
+      </c>
+      <c r="B175" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175">
+        <v>16</v>
+      </c>
+      <c r="D175" t="s">
+        <v>265</v>
+      </c>
+      <c r="E175">
+        <v>418</v>
+      </c>
+      <c r="G175" t="s">
+        <v>554</v>
+      </c>
+      <c r="I175" t="s">
+        <v>555</v>
+      </c>
+      <c r="J175">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>10</v>
+      </c>
+      <c r="B176" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176">
+        <v>16</v>
+      </c>
+      <c r="D176" t="s">
+        <v>265</v>
+      </c>
+      <c r="E176">
+        <v>419</v>
+      </c>
+      <c r="G176" t="s">
+        <v>557</v>
+      </c>
+      <c r="I176" t="s">
+        <v>556</v>
+      </c>
+      <c r="J176">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>10</v>
+      </c>
+      <c r="B177" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177">
+        <v>16</v>
+      </c>
+      <c r="D177" t="s">
+        <v>265</v>
+      </c>
+      <c r="E177">
+        <v>420</v>
+      </c>
+      <c r="G177" t="s">
+        <v>558</v>
+      </c>
+      <c r="I177" t="s">
+        <v>559</v>
+      </c>
+      <c r="J177">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:J261">
-    <sortCondition ref="B2:B261"/>
-    <sortCondition ref="G2:G261"/>
+  <sortState ref="A2:J177">
+    <sortCondition ref="D2:D177"/>
+    <sortCondition ref="G2:G177"/>
+    <sortCondition ref="B2:B177"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F139" r:id="rId1" display="http://67.192.244.3/Main/Wolf-Picnic-Area-Trail1.aspx"/>
-    <hyperlink ref="F119" r:id="rId2" display="http://67.192.244.3/Main/Sugar-Bush-Loop-Trail1.aspx"/>
-    <hyperlink ref="F102" r:id="rId3" display="http://67.192.244.3/Main/Royalview-Loop-Trail1.aspx"/>
-    <hyperlink ref="F2" r:id="rId4" display="http://67.192.244.3/Main/Bedford-Reservation-All-Purpose-Trail.aspx"/>
+    <hyperlink ref="F94" r:id="rId1" display="http://67.192.244.3/Main/Wolf-Picnic-Area-Trail1.aspx"/>
+    <hyperlink ref="F112" r:id="rId2" display="http://67.192.244.3/Main/Sugar-Bush-Loop-Trail1.aspx"/>
+    <hyperlink ref="F109" r:id="rId3" display="http://67.192.244.3/Main/Royalview-Loop-Trail1.aspx"/>
+    <hyperlink ref="F4" r:id="rId4" display="http://67.192.244.3/Main/Bedford-Reservation-All-Purpose-Trail.aspx"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
